--- a/api/components/attributes/metro-card-recharge/metro-card-recharge.xlsx
+++ b/api/components/attributes/metro-card-recharge/metro-card-recharge.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2262" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2287" uniqueCount="289">
   <si>
     <t>Path</t>
   </si>
@@ -290,16 +290,13 @@
     <t>message.catalog.providers.categories.descriptor.name</t>
   </si>
   <si>
-    <t>Ticket</t>
+    <t>Recharge</t>
   </si>
   <si>
     <t>Describes the category name.</t>
   </si>
   <si>
     <t>message.catalog.providers.categories.descriptor.code</t>
-  </si>
-  <si>
-    <t>TICKET</t>
   </si>
   <si>
     <t>Describes the category code.</t>
@@ -387,6 +384,12 @@
   </si>
   <si>
     <t>Describes the name for a particular item.</t>
+  </si>
+  <si>
+    <t>message.catalog.providers.items.descriptor.images.url</t>
+  </si>
+  <si>
+    <t>Describes the descriptor images.</t>
   </si>
   <si>
     <t>message.catalog.providers.items.price.currency</t>
@@ -503,16 +506,13 @@
     <t>Describes the ID of the item.</t>
   </si>
   <si>
-    <t>message.order.items.quantity.selected.count</t>
+    <t>message.order.provider.id</t>
   </si>
   <si>
-    <t>integer</t>
+    <t>message.order.items.price.value</t>
   </si>
   <si>
-    <t>This represents the quantity selected for purchase of the item</t>
-  </si>
-  <si>
-    <t>message.order.provider.id</t>
+    <t>Describes the price value of an item.</t>
   </si>
   <si>
     <t>message.order.fulfillments.id</t>
@@ -548,13 +548,13 @@
     <t>message.order.items.descriptor.code</t>
   </si>
   <si>
+    <t>message.order.items.descriptor.images.url</t>
+  </si>
+  <si>
     <t>message.order.items.price.currency</t>
   </si>
   <si>
     <t>Price of the selected item.</t>
-  </si>
-  <si>
-    <t>message.order.items.price.value</t>
   </si>
   <si>
     <t>Describes a numerical value in decimal form</t>
@@ -684,6 +684,29 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <u/>
+      </rPr>
+      <t>message.order.quote.breakup.</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>price.currency</t>
+    </r>
+  </si>
+  <si>
+    <t>message.order.quote.id</t>
+  </si>
+  <si>
+    <t>Describes the quote ID.</t>
+  </si>
+  <si>
     <t>init</t>
   </si>
   <si>
@@ -768,6 +791,9 @@
     <t>Describes the billing phone</t>
   </si>
   <si>
+    <t>on_init</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
@@ -816,6 +842,23 @@
         <color rgb="FF000000"/>
       </rPr>
       <t>price.value</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <u/>
+      </rPr>
+      <t>message.order.quote.breakup.</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>price.currency</t>
     </r>
   </si>
   <si>
@@ -897,6 +940,9 @@
     <t>Describes the payment amount</t>
   </si>
   <si>
+    <t>on_confirm</t>
+  </si>
+  <si>
     <t>message.order.fulfillments.state.descriptor.code</t>
   </si>
   <si>
@@ -963,6 +1009,23 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <u/>
+      </rPr>
+      <t>message.order.quote.breakup.</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>price.currency</t>
+    </r>
+  </si>
+  <si>
     <t>message.order.id</t>
   </si>
   <si>
@@ -997,7 +1060,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1059,8 +1122,20 @@
       <name val="Consolas"/>
     </font>
     <font>
+      <u/>
+      <sz val="9.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9.0"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -1139,7 +1214,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="75">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1208,17 +1283,23 @@
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1257,45 +1338,45 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="19" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="17" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1310,22 +1391,25 @@
     <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1334,7 +1418,7 @@
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -3988,15 +4072,15 @@
         <v>70</v>
       </c>
       <c r="E20" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="21" t="s">
         <v>93</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>7</v>
@@ -4008,15 +4092,15 @@
         <v>70</v>
       </c>
       <c r="E21" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="F21" s="15" t="s">
         <v>96</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B22" s="13" t="s">
         <v>80</v>
@@ -4027,8 +4111,8 @@
       <c r="D22" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E22" s="17" t="s">
-        <v>99</v>
+      <c r="E22" s="26" t="s">
+        <v>98</v>
       </c>
       <c r="F22" s="18" t="s">
         <v>82</v>
@@ -4036,7 +4120,7 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B23" s="13" t="s">
         <v>7</v>
@@ -4048,15 +4132,15 @@
         <v>70</v>
       </c>
       <c r="E23" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" s="27" t="s">
         <v>101</v>
-      </c>
-      <c r="F23" s="26" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B24" s="13" t="s">
         <v>7</v>
@@ -4068,15 +4152,15 @@
         <v>70</v>
       </c>
       <c r="E24" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" s="27" t="s">
         <v>104</v>
-      </c>
-      <c r="F24" s="26" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B25" s="13" t="s">
         <v>80</v>
@@ -4088,15 +4172,15 @@
         <v>70</v>
       </c>
       <c r="E25" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="F25" s="27" t="s">
         <v>107</v>
-      </c>
-      <c r="F25" s="26" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>80</v>
@@ -4108,15 +4192,15 @@
         <v>70</v>
       </c>
       <c r="E26" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="F26" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="F26" s="26" t="s">
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="28" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="27" t="s">
-        <v>112</v>
       </c>
       <c r="B27" s="13" t="s">
         <v>80</v>
@@ -4128,15 +4212,15 @@
         <v>70</v>
       </c>
       <c r="E27" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="F27" s="29" t="s">
         <v>113</v>
-      </c>
-      <c r="F27" s="28" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>7</v>
@@ -4148,15 +4232,15 @@
         <v>70</v>
       </c>
       <c r="E28" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="F28" s="18" t="s">
         <v>116</v>
-      </c>
-      <c r="F28" s="18" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B29" s="13" t="s">
         <v>7</v>
@@ -4171,12 +4255,12 @@
         <v>51</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B30" s="13" t="s">
         <v>7</v>
@@ -4188,18 +4272,18 @@
         <v>70</v>
       </c>
       <c r="E30" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="F30" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="F30" s="15" t="s">
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="13" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="16" t="s">
-        <v>123</v>
-      </c>
       <c r="B31" s="13" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>8</v>
@@ -4207,36 +4291,36 @@
       <c r="D31" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E31" s="14" t="s">
-        <v>124</v>
+      <c r="E31" s="30" t="s">
+        <v>98</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B32" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E32" s="1">
-        <v>60.0</v>
-      </c>
-      <c r="F32" s="28" t="s">
+      <c r="E32" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="16" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="27" t="s">
-        <v>128</v>
       </c>
       <c r="B33" s="13" t="s">
         <v>7</v>
@@ -4250,16 +4334,16 @@
       <c r="E33" s="1">
         <v>60.0</v>
       </c>
-      <c r="F33" s="28" t="s">
+      <c r="F33" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="28" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="27" t="s">
-        <v>130</v>
-      </c>
       <c r="B34" s="13" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="C34" s="13" t="s">
         <v>8</v>
@@ -4270,32 +4354,32 @@
       <c r="E34" s="1">
         <v>60.0</v>
       </c>
-      <c r="F34" s="28" t="s">
+      <c r="F34" s="29" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="28" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="16" t="s">
-        <v>132</v>
-      </c>
       <c r="B35" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E35" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="F35" s="18" t="s">
-        <v>102</v>
+      <c r="E35" s="1">
+        <v>60.0</v>
+      </c>
+      <c r="F35" s="29" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="27" t="s">
+      <c r="A36" s="16" t="s">
         <v>133</v>
       </c>
       <c r="B36" s="13" t="s">
@@ -4307,19 +4391,19 @@
       <c r="D36" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E36" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="F36" s="21" t="s">
+      <c r="E36" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="F36" s="18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="28" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="27" t="s">
-        <v>135</v>
-      </c>
       <c r="B37" s="13" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>8</v>
@@ -4327,16 +4411,16 @@
       <c r="D37" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E37" s="29" t="s">
+      <c r="E37" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="28" t="s">
         <v>136</v>
-      </c>
-      <c r="F37" s="21" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="27" t="s">
-        <v>138</v>
       </c>
       <c r="B38" s="13" t="s">
         <v>80</v>
@@ -4347,113 +4431,92 @@
       <c r="D38" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E38" s="30" t="s">
+      <c r="E38" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="F38" s="21" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="F38" s="12" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="6" t="s">
-        <v>141</v>
-      </c>
       <c r="B39" s="13" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D39" s="31" t="s">
+      <c r="D39" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E39" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="E39" s="32" t="s">
+      <c r="E40" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="F39" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="33"/>
-      <c r="K39" s="33"/>
-      <c r="L39" s="33"/>
-      <c r="M39" s="33"/>
-      <c r="N39" s="33"/>
-      <c r="O39" s="33"/>
-      <c r="P39" s="33"/>
-      <c r="Q39" s="33"/>
-      <c r="R39" s="33"/>
-      <c r="S39" s="33"/>
-      <c r="T39" s="33"/>
-      <c r="U39" s="33"/>
-      <c r="V39" s="33"/>
-      <c r="W39" s="33"/>
-      <c r="X39" s="33"/>
-      <c r="Y39" s="33"/>
-      <c r="Z39" s="33"/>
-      <c r="AA39" s="33"/>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="34" t="s">
+      <c r="F40" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="35"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="35"/>
+      <c r="N40" s="35"/>
+      <c r="O40" s="35"/>
+      <c r="P40" s="35"/>
+      <c r="Q40" s="35"/>
+      <c r="R40" s="35"/>
+      <c r="S40" s="35"/>
+      <c r="T40" s="35"/>
+      <c r="U40" s="35"/>
+      <c r="V40" s="35"/>
+      <c r="W40" s="35"/>
+      <c r="X40" s="35"/>
+      <c r="Y40" s="35"/>
+      <c r="Z40" s="35"/>
+      <c r="AA40" s="35"/>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="C40" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E40" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="F40" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="2"/>
-      <c r="S40" s="2"/>
-      <c r="T40" s="2"/>
-      <c r="U40" s="2"/>
-      <c r="V40" s="2"/>
-      <c r="W40" s="2"/>
-      <c r="X40" s="2"/>
-      <c r="Y40" s="2"/>
-      <c r="Z40" s="2"/>
-      <c r="AA40" s="2"/>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="C41" s="36" t="s">
+      <c r="B41" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="C41" s="38" t="s">
         <v>43</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E41" s="35" t="s">
+      <c r="E41" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="F41" s="38" t="s">
-        <v>47</v>
+      <c r="F41" s="39" t="s">
+        <v>45</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
@@ -4478,23 +4541,23 @@
       <c r="AA41" s="2"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="B42" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="C42" s="36" t="s">
+      <c r="A42" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="C42" s="38" t="s">
         <v>43</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E42" s="35" t="s">
+      <c r="E42" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="F42" s="38" t="s">
-        <v>49</v>
+      <c r="F42" s="40" t="s">
+        <v>47</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
@@ -4519,23 +4582,23 @@
       <c r="AA42" s="2"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="39" t="s">
+      <c r="A43" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E43" s="2" t="s">
+      <c r="D43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="37" t="s">
         <v>44</v>
       </c>
       <c r="F43" s="40" t="s">
-        <v>145</v>
+        <v>49</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
@@ -4560,14 +4623,14 @@
       <c r="AA43" s="2"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="39" t="s">
-        <v>146</v>
+      <c r="A44" s="41" t="s">
+        <v>145</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>144</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>70</v>
@@ -4575,8 +4638,8 @@
       <c r="E44" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F44" s="40" t="s">
-        <v>147</v>
+      <c r="F44" s="42" t="s">
+        <v>146</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
@@ -4601,11 +4664,11 @@
       <c r="AA44" s="2"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="39" t="s">
-        <v>148</v>
+      <c r="A45" s="41" t="s">
+        <v>147</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>8</v>
@@ -4616,8 +4679,8 @@
       <c r="E45" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F45" s="40" t="s">
-        <v>60</v>
+      <c r="F45" s="42" t="s">
+        <v>148</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
@@ -4642,14 +4705,14 @@
       <c r="AA45" s="2"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="39" t="s">
+      <c r="A46" s="41" t="s">
         <v>149</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>43</v>
+        <v>144</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>70</v>
@@ -4657,8 +4720,8 @@
       <c r="E46" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F46" s="41" t="s">
-        <v>150</v>
+      <c r="F46" s="42" t="s">
+        <v>60</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
@@ -4683,14 +4746,14 @@
       <c r="AA46" s="2"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="39" t="s">
-        <v>151</v>
+      <c r="A47" s="41" t="s">
+        <v>150</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>144</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>70</v>
@@ -4698,8 +4761,8 @@
       <c r="E47" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F47" s="41" t="s">
-        <v>152</v>
+      <c r="F47" s="43" t="s">
+        <v>151</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
@@ -4724,11 +4787,11 @@
       <c r="AA47" s="2"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="39" t="s">
-        <v>153</v>
+      <c r="A48" s="41" t="s">
+        <v>152</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>8</v>
@@ -4739,8 +4802,8 @@
       <c r="E48" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F48" s="2" t="s">
-        <v>154</v>
+      <c r="F48" s="43" t="s">
+        <v>153</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
@@ -4765,11 +4828,11 @@
       <c r="AA48" s="2"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="39" t="s">
-        <v>155</v>
+      <c r="A49" s="41" t="s">
+        <v>154</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>8</v>
@@ -4780,8 +4843,8 @@
       <c r="E49" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F49" s="41" t="s">
-        <v>156</v>
+      <c r="F49" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
@@ -4805,7 +4868,47 @@
       <c r="Z49" s="2"/>
       <c r="AA49" s="2"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="A50" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
+      <c r="U50" s="2"/>
+      <c r="V50" s="2"/>
+      <c r="W50" s="2"/>
+      <c r="X50" s="2"/>
+      <c r="Y50" s="2"/>
+      <c r="Z50" s="2"/>
+      <c r="AA50" s="2"/>
+    </row>
     <row r="51" ht="15.75" customHeight="1"/>
     <row r="52" ht="15.75" customHeight="1"/>
     <row r="53" ht="15.75" customHeight="1"/>
@@ -5700,6 +5803,7 @@
     <row r="942" ht="15.75" customHeight="1"/>
     <row r="943" ht="15.75" customHeight="1"/>
     <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="E6"/>
@@ -5709,8 +5813,9 @@
     <hyperlink r:id="rId5" ref="E16"/>
     <hyperlink r:id="rId6" ref="A18"/>
     <hyperlink r:id="rId7" ref="E22"/>
+    <hyperlink r:id="rId8" ref="E31"/>
   </hyperlinks>
-  <drawing r:id="rId8"/>
+  <drawing r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -5744,7 +5849,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -6092,9 +6197,9 @@
         <v>9</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F10" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="F10" s="44" t="s">
         <v>35</v>
       </c>
       <c r="G10" s="2"/>
@@ -6176,7 +6281,7 @@
       <c r="E12" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="42" t="s">
+      <c r="F12" s="44" t="s">
         <v>41</v>
       </c>
       <c r="G12" s="2"/>
@@ -6285,7 +6390,7 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>7</v>
@@ -6297,70 +6402,91 @@
         <v>70</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="F15" s="28" t="s">
-        <v>160</v>
+        <v>115</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="16" t="s">
-        <v>161</v>
+      <c r="A16" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D16" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>85</v>
-      </c>
+      <c r="E17" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="C18" s="36" t="s">
+      <c r="A18" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="C18" s="38" t="s">
         <v>43</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="35" t="s">
+      <c r="E18" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="37" t="s">
-        <v>45</v>
+      <c r="F18" s="40" t="s">
+        <v>47</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -6385,23 +6511,23 @@
       <c r="AA18" s="2"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="C19" s="36" t="s">
+      <c r="A19" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" s="38" t="s">
         <v>43</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="35" t="s">
+      <c r="E19" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="38" t="s">
-        <v>47</v>
+      <c r="F19" s="40" t="s">
+        <v>49</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -6426,23 +6552,23 @@
       <c r="AA19" s="2"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>43</v>
+      <c r="A20" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" s="38" t="s">
-        <v>49</v>
+        <v>70</v>
+      </c>
+      <c r="E20" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="46" t="s">
+        <v>116</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -6467,10 +6593,10 @@
       <c r="AA20" s="2"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B21" s="2" t="s">
+      <c r="A21" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -6479,11 +6605,11 @@
       <c r="D21" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E21" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="F21" s="44" t="s">
-        <v>117</v>
+      <c r="E21" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="F21" s="47" t="s">
+        <v>164</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -6508,8 +6634,8 @@
       <c r="AA21" s="2"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="41" t="s">
-        <v>164</v>
+      <c r="A22" s="43" t="s">
+        <v>162</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>7</v>
@@ -6523,7 +6649,7 @@
       <c r="E22" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F22" s="44" t="s">
+      <c r="F22" s="46" t="s">
         <v>85</v>
       </c>
       <c r="G22" s="2"/>
@@ -6549,7 +6675,7 @@
       <c r="AA22" s="2"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="43" t="s">
         <v>165</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -6562,10 +6688,10 @@
         <v>70</v>
       </c>
       <c r="E23" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" s="46" t="s">
         <v>101</v>
-      </c>
-      <c r="F23" s="44" t="s">
-        <v>102</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -6590,10 +6716,10 @@
       <c r="AA23" s="2"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="41" t="s">
+      <c r="A24" s="43" t="s">
         <v>166</v>
       </c>
-      <c r="B24" s="41" t="s">
+      <c r="B24" s="43" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -6602,10 +6728,10 @@
       <c r="D24" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E24" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="F24" s="44" t="s">
+      <c r="E24" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" s="46" t="s">
         <v>167</v>
       </c>
       <c r="G24" s="2"/>
@@ -6631,10 +6757,10 @@
       <c r="AA24" s="2"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="49" t="s">
         <v>168</v>
       </c>
-      <c r="B25" s="41" t="s">
+      <c r="B25" s="43" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -6643,7 +6769,7 @@
       <c r="D25" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="45">
+      <c r="E25" s="48">
         <v>1.29812901E8</v>
       </c>
       <c r="F25" s="47" t="s">
@@ -6672,10 +6798,10 @@
       <c r="AA25" s="2"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="48" t="s">
+      <c r="A26" s="50" t="s">
         <v>170</v>
       </c>
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="43" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -6684,7 +6810,7 @@
       <c r="D26" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="45" t="s">
+      <c r="E26" s="48" t="s">
         <v>171</v>
       </c>
       <c r="F26" s="47" t="s">
@@ -7720,7 +7846,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -8009,7 +8135,7 @@
       <c r="E8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="42" t="s">
+      <c r="F8" s="44" t="s">
         <v>29</v>
       </c>
       <c r="G8" s="2"/>
@@ -8050,7 +8176,7 @@
       <c r="E9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="42" t="s">
+      <c r="F9" s="44" t="s">
         <v>32</v>
       </c>
       <c r="G9" s="2"/>
@@ -8091,7 +8217,7 @@
       <c r="E10" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="F10" s="42" t="s">
+      <c r="F10" s="44" t="s">
         <v>35</v>
       </c>
       <c r="G10" s="2"/>
@@ -8132,7 +8258,7 @@
       <c r="E11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="42" t="s">
+      <c r="F11" s="44" t="s">
         <v>38</v>
       </c>
       <c r="G11" s="2"/>
@@ -8173,7 +8299,7 @@
       <c r="E12" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="42" t="s">
+      <c r="F12" s="44" t="s">
         <v>41</v>
       </c>
       <c r="G12" s="2"/>
@@ -8282,7 +8408,7 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>7</v>
@@ -8294,10 +8420,10 @@
         <v>70</v>
       </c>
       <c r="E15" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="F15" s="27" t="s">
         <v>116</v>
-      </c>
-      <c r="F15" s="26" t="s">
-        <v>117</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
@@ -8335,10 +8461,10 @@
         <v>70</v>
       </c>
       <c r="E16" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="F16" s="29" t="s">
         <v>121</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>122</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
@@ -8378,8 +8504,8 @@
       <c r="E17" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="28" t="s">
-        <v>119</v>
+      <c r="F17" s="29" t="s">
+        <v>118</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
@@ -8404,11 +8530,11 @@
       <c r="AA17" s="10"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="13" t="s">
         <v>176</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>8</v>
@@ -8416,52 +8542,31 @@
       <c r="D18" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="49" t="s">
-        <v>124</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="10"/>
-      <c r="X18" s="10"/>
-      <c r="Y18" s="10"/>
-      <c r="Z18" s="10"/>
-      <c r="AA18" s="10"/>
+      <c r="E18" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="49">
-        <v>60.0</v>
-      </c>
-      <c r="F19" s="26" t="s">
-        <v>179</v>
+      <c r="E19" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
@@ -8486,8 +8591,8 @@
       <c r="AA19" s="10"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="27" t="s">
-        <v>180</v>
+      <c r="A20" s="16" t="s">
+        <v>163</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>7</v>
@@ -8498,10 +8603,10 @@
       <c r="D20" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E20" s="49">
+      <c r="E20" s="51">
         <v>60.0</v>
       </c>
-      <c r="F20" s="26" t="s">
+      <c r="F20" s="27" t="s">
         <v>179</v>
       </c>
       <c r="G20" s="10"/>
@@ -8527,90 +8632,90 @@
       <c r="AA20" s="10"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="B21" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="5" t="s">
+      <c r="A21" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="1" t="s">
         <v>70</v>
       </c>
       <c r="E21" s="51">
         <v>60.0</v>
       </c>
-      <c r="F21" s="52" t="s">
+      <c r="F21" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
-      <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
-      <c r="Z21" s="2"/>
-      <c r="AA21" s="2"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="10"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="52">
+        <v>60.0</v>
+      </c>
+      <c r="F22" s="53" t="s">
+        <v>179</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="16" t="s">
         <v>182</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="F22" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10"/>
-      <c r="V22" s="10"/>
-      <c r="W22" s="10"/>
-      <c r="X22" s="10"/>
-      <c r="Y22" s="10"/>
-      <c r="Z22" s="10"/>
-      <c r="AA22" s="10"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="27" t="s">
-        <v>183</v>
       </c>
       <c r="B23" s="13" t="s">
         <v>7</v>
@@ -8622,10 +8727,10 @@
         <v>70</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="F23" s="53" t="s">
-        <v>134</v>
+        <v>100</v>
+      </c>
+      <c r="F23" s="27" t="s">
+        <v>101</v>
       </c>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
@@ -8650,11 +8755,11 @@
       <c r="AA23" s="10"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="27" t="s">
-        <v>184</v>
+      <c r="A24" s="28" t="s">
+        <v>183</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>8</v>
@@ -8662,11 +8767,11 @@
       <c r="D24" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E24" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="F24" s="53" t="s">
-        <v>137</v>
+      <c r="E24" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" s="54" t="s">
+        <v>135</v>
       </c>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
@@ -8691,8 +8796,8 @@
       <c r="AA24" s="10"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="27" t="s">
-        <v>186</v>
+      <c r="A25" s="28" t="s">
+        <v>184</v>
       </c>
       <c r="B25" s="13" t="s">
         <v>80</v>
@@ -8703,11 +8808,11 @@
       <c r="D25" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E25" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>140</v>
+      <c r="E25" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="F25" s="54" t="s">
+        <v>138</v>
       </c>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
@@ -8732,11 +8837,11 @@
       <c r="AA25" s="10"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="22" t="s">
-        <v>164</v>
+      <c r="A26" s="28" t="s">
+        <v>186</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>8</v>
@@ -8744,11 +8849,11 @@
       <c r="D26" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E26" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="F26" s="26" t="s">
-        <v>85</v>
+      <c r="E26" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>141</v>
       </c>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
@@ -8773,8 +8878,8 @@
       <c r="AA26" s="10"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="25" t="s">
-        <v>187</v>
+      <c r="A27" s="22" t="s">
+        <v>162</v>
       </c>
       <c r="B27" s="13" t="s">
         <v>7</v>
@@ -8785,11 +8890,11 @@
       <c r="D27" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="F27" s="28" t="s">
-        <v>97</v>
+      <c r="E27" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27" s="27" t="s">
+        <v>85</v>
       </c>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
@@ -8814,11 +8919,11 @@
       <c r="AA27" s="10"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="16" t="s">
-        <v>188</v>
+      <c r="A28" s="25" t="s">
+        <v>187</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>8</v>
@@ -8826,11 +8931,11 @@
       <c r="D28" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E28" s="54" t="s">
-        <v>99</v>
-      </c>
-      <c r="F28" s="26" t="s">
-        <v>82</v>
+      <c r="E28" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="F28" s="29" t="s">
+        <v>96</v>
       </c>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
@@ -8856,10 +8961,10 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="16" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>8</v>
@@ -8867,11 +8972,11 @@
       <c r="D29" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E29" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="F29" s="26" t="s">
-        <v>102</v>
+      <c r="E29" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>82</v>
       </c>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
@@ -8896,10 +9001,10 @@
       <c r="AA29" s="10"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="B30" s="27" t="s">
+      <c r="A30" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="B30" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -8908,11 +9013,11 @@
       <c r="D30" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E30" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="F30" s="28" t="s">
-        <v>167</v>
+      <c r="E30" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="F30" s="27" t="s">
+        <v>101</v>
       </c>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
@@ -8937,11 +9042,11 @@
       <c r="AA30" s="10"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="B31" s="27" t="s">
-        <v>80</v>
+      <c r="A31" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>7</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>8</v>
@@ -8949,11 +9054,11 @@
       <c r="D31" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E31" s="49" t="s">
-        <v>191</v>
-      </c>
-      <c r="F31" s="28" t="s">
-        <v>192</v>
+      <c r="E31" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="F31" s="29" t="s">
+        <v>167</v>
       </c>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
@@ -8978,51 +9083,51 @@
       <c r="AA31" s="10"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" s="51" t="s">
+        <v>191</v>
+      </c>
+      <c r="F32" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="10"/>
+      <c r="W32" s="10"/>
+      <c r="X32" s="10"/>
+      <c r="Y32" s="10"/>
+      <c r="Z32" s="10"/>
+      <c r="AA32" s="10"/>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="42" t="s">
         <v>193</v>
       </c>
-      <c r="B32" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E32" s="55" t="s">
-        <v>110</v>
-      </c>
-      <c r="F32" s="56" t="s">
-        <v>111</v>
-      </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
-      <c r="U32" s="2"/>
-      <c r="V32" s="2"/>
-      <c r="W32" s="2"/>
-      <c r="X32" s="2"/>
-      <c r="Y32" s="2"/>
-      <c r="Z32" s="2"/>
-      <c r="AA32" s="2"/>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="40" t="s">
-        <v>194</v>
-      </c>
-      <c r="B33" s="50" t="s">
+      <c r="B33" s="56" t="s">
         <v>80</v>
       </c>
       <c r="C33" s="5" t="s">
@@ -9031,11 +9136,11 @@
       <c r="D33" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E33" s="55" t="s">
-        <v>113</v>
-      </c>
-      <c r="F33" s="56" t="s">
-        <v>114</v>
+      <c r="E33" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="F33" s="58" t="s">
+        <v>110</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -9060,23 +9165,23 @@
       <c r="AA33" s="2"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="57" t="s">
-        <v>168</v>
-      </c>
-      <c r="B34" s="58" t="s">
-        <v>7</v>
+      <c r="A34" s="42" t="s">
+        <v>194</v>
+      </c>
+      <c r="B34" s="56" t="s">
+        <v>80</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="51">
-        <v>1.29812901E8</v>
-      </c>
-      <c r="F34" s="52" t="s">
-        <v>169</v>
+        <v>70</v>
+      </c>
+      <c r="E34" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F34" s="58" t="s">
+        <v>113</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -9102,9 +9207,9 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="59" t="s">
-        <v>170</v>
-      </c>
-      <c r="B35" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="B35" s="60" t="s">
         <v>7</v>
       </c>
       <c r="C35" s="5" t="s">
@@ -9113,11 +9218,11 @@
       <c r="D35" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E35" s="55" t="s">
-        <v>171</v>
-      </c>
-      <c r="F35" s="52" t="s">
-        <v>172</v>
+      <c r="E35" s="52">
+        <v>1.29812901E8</v>
+      </c>
+      <c r="F35" s="53" t="s">
+        <v>169</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -9142,64 +9247,64 @@
       <c r="AA35" s="2"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="B36" s="13" t="s">
+      <c r="A36" s="61" t="s">
+        <v>170</v>
+      </c>
+      <c r="B36" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="27" t="s">
+      <c r="C36" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E36" s="1">
-        <v>60.0</v>
-      </c>
-      <c r="F36" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="10"/>
-      <c r="R36" s="10"/>
-      <c r="S36" s="10"/>
-      <c r="T36" s="10"/>
-      <c r="U36" s="10"/>
-      <c r="V36" s="10"/>
-      <c r="W36" s="10"/>
-      <c r="X36" s="10"/>
-      <c r="Y36" s="10"/>
-      <c r="Z36" s="10"/>
-      <c r="AA36" s="10"/>
+      <c r="D36" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="57" t="s">
+        <v>171</v>
+      </c>
+      <c r="F36" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="2"/>
+      <c r="Z36" s="2"/>
+      <c r="AA36" s="2"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B37" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F37" s="26" t="s">
-        <v>125</v>
+      <c r="E37" s="1">
+        <v>60.0</v>
+      </c>
+      <c r="F37" s="27" t="s">
+        <v>128</v>
       </c>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
@@ -9224,8 +9329,8 @@
       <c r="AA37" s="10"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="27" t="s">
-        <v>197</v>
+      <c r="A38" s="16" t="s">
+        <v>196</v>
       </c>
       <c r="B38" s="13" t="s">
         <v>7</v>
@@ -9236,11 +9341,11 @@
       <c r="D38" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E38" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="F38" s="26" t="s">
-        <v>199</v>
+      <c r="E38" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F38" s="27" t="s">
+        <v>126</v>
       </c>
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
@@ -9265,11 +9370,11 @@
       <c r="AA38" s="10"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="60" t="s">
-        <v>200</v>
+      <c r="A39" s="28" t="s">
+        <v>197</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>8</v>
@@ -9277,11 +9382,11 @@
       <c r="D39" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E39" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="F39" s="26" t="s">
-        <v>117</v>
+      <c r="E39" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="F39" s="27" t="s">
+        <v>199</v>
       </c>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
@@ -9306,11 +9411,11 @@
       <c r="AA39" s="10"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="61" t="s">
-        <v>202</v>
+      <c r="A40" s="62" t="s">
+        <v>200</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>8</v>
@@ -9319,10 +9424,10 @@
         <v>70</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="F40" s="53" t="s">
-        <v>203</v>
+        <v>201</v>
+      </c>
+      <c r="F40" s="27" t="s">
+        <v>116</v>
       </c>
       <c r="G40" s="10"/>
       <c r="H40" s="10"/>
@@ -9347,11 +9452,11 @@
       <c r="AA40" s="10"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="61" t="s">
-        <v>204</v>
+      <c r="A41" s="63" t="s">
+        <v>202</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>8</v>
@@ -9359,11 +9464,11 @@
       <c r="D41" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E41" s="13">
-        <v>60.0</v>
-      </c>
-      <c r="F41" s="53" t="s">
-        <v>205</v>
+      <c r="E41" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="F41" s="54" t="s">
+        <v>203</v>
       </c>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
@@ -9388,8 +9493,8 @@
       <c r="AA41" s="10"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="61" t="s">
-        <v>206</v>
+      <c r="A42" s="63" t="s">
+        <v>204</v>
       </c>
       <c r="B42" s="13" t="s">
         <v>80</v>
@@ -9401,10 +9506,10 @@
         <v>70</v>
       </c>
       <c r="E42" s="13">
-        <v>120.0</v>
-      </c>
-      <c r="F42" s="53" t="s">
-        <v>127</v>
+        <v>60.0</v>
+      </c>
+      <c r="F42" s="54" t="s">
+        <v>205</v>
       </c>
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
@@ -9429,12 +9534,24 @@
       <c r="AA42" s="10"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
+      <c r="A43" s="63" t="s">
+        <v>206</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E43" s="13">
+        <v>120.0</v>
+      </c>
+      <c r="F43" s="54" t="s">
+        <v>128</v>
+      </c>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
       <c r="I43" s="10"/>
@@ -9458,41 +9575,65 @@
       <c r="AA43" s="10"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="10"/>
-      <c r="P44" s="10"/>
-      <c r="Q44" s="10"/>
-      <c r="R44" s="10"/>
-      <c r="S44" s="10"/>
-      <c r="T44" s="10"/>
-      <c r="U44" s="10"/>
-      <c r="V44" s="10"/>
-      <c r="W44" s="10"/>
-      <c r="X44" s="10"/>
-      <c r="Y44" s="10"/>
-      <c r="Z44" s="10"/>
-      <c r="AA44" s="10"/>
+      <c r="A44" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="B44" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E44" s="64" t="s">
+        <v>125</v>
+      </c>
+      <c r="F44" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="2"/>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="2"/>
+      <c r="Z44" s="2"/>
+      <c r="AA44" s="2"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
+      <c r="A45" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="1">
+        <v>60.0</v>
+      </c>
+      <c r="F45" s="29" t="s">
+        <v>209</v>
+      </c>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
@@ -35441,16 +35582,76 @@
       <c r="Z939" s="10"/>
       <c r="AA939" s="10"/>
     </row>
+    <row r="940" ht="15.75" customHeight="1">
+      <c r="A940" s="10"/>
+      <c r="B940" s="10"/>
+      <c r="C940" s="10"/>
+      <c r="D940" s="10"/>
+      <c r="E940" s="10"/>
+      <c r="F940" s="10"/>
+      <c r="G940" s="10"/>
+      <c r="H940" s="10"/>
+      <c r="I940" s="10"/>
+      <c r="J940" s="10"/>
+      <c r="K940" s="10"/>
+      <c r="L940" s="10"/>
+      <c r="M940" s="10"/>
+      <c r="N940" s="10"/>
+      <c r="O940" s="10"/>
+      <c r="P940" s="10"/>
+      <c r="Q940" s="10"/>
+      <c r="R940" s="10"/>
+      <c r="S940" s="10"/>
+      <c r="T940" s="10"/>
+      <c r="U940" s="10"/>
+      <c r="V940" s="10"/>
+      <c r="W940" s="10"/>
+      <c r="X940" s="10"/>
+      <c r="Y940" s="10"/>
+      <c r="Z940" s="10"/>
+      <c r="AA940" s="10"/>
+    </row>
+    <row r="941" ht="15.75" customHeight="1">
+      <c r="A941" s="10"/>
+      <c r="B941" s="10"/>
+      <c r="C941" s="10"/>
+      <c r="D941" s="10"/>
+      <c r="E941" s="10"/>
+      <c r="F941" s="10"/>
+      <c r="G941" s="10"/>
+      <c r="H941" s="10"/>
+      <c r="I941" s="10"/>
+      <c r="J941" s="10"/>
+      <c r="K941" s="10"/>
+      <c r="L941" s="10"/>
+      <c r="M941" s="10"/>
+      <c r="N941" s="10"/>
+      <c r="O941" s="10"/>
+      <c r="P941" s="10"/>
+      <c r="Q941" s="10"/>
+      <c r="R941" s="10"/>
+      <c r="S941" s="10"/>
+      <c r="T941" s="10"/>
+      <c r="U941" s="10"/>
+      <c r="V941" s="10"/>
+      <c r="W941" s="10"/>
+      <c r="X941" s="10"/>
+      <c r="Y941" s="10"/>
+      <c r="Z941" s="10"/>
+      <c r="AA941" s="10"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="E6"/>
     <hyperlink r:id="rId2" ref="E11"/>
     <hyperlink r:id="rId3" ref="E13"/>
     <hyperlink r:id="rId4" ref="E14"/>
-    <hyperlink r:id="rId5" ref="E28"/>
-    <hyperlink r:id="rId6" ref="A34"/>
+    <hyperlink r:id="rId5" ref="E18"/>
+    <hyperlink r:id="rId6" ref="E29"/>
+    <hyperlink r:id="rId7" ref="A35"/>
+    <hyperlink r:id="rId8" ref="A45"/>
   </hyperlinks>
-  <drawing r:id="rId7"/>
+  <drawing r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -35484,7 +35685,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -35832,9 +36033,9 @@
         <v>9</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="F10" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="F10" s="44" t="s">
         <v>35</v>
       </c>
       <c r="G10" s="2"/>
@@ -35916,7 +36117,7 @@
       <c r="E12" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="42" t="s">
+      <c r="F12" s="44" t="s">
         <v>41</v>
       </c>
       <c r="G12" s="2"/>
@@ -36025,7 +36226,7 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>7</v>
@@ -36037,70 +36238,91 @@
         <v>70</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="F15" s="28" t="s">
-        <v>160</v>
+        <v>115</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="16" t="s">
-        <v>161</v>
+      <c r="A16" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D16" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>85</v>
-      </c>
+      <c r="E17" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="C18" s="36" t="s">
+      <c r="A18" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="C18" s="38" t="s">
         <v>43</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="35" t="s">
+      <c r="E18" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="37" t="s">
-        <v>45</v>
+      <c r="F18" s="40" t="s">
+        <v>47</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -36125,23 +36347,23 @@
       <c r="AA18" s="2"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="C19" s="36" t="s">
+      <c r="A19" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" s="38" t="s">
         <v>43</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="35" t="s">
+      <c r="E19" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="38" t="s">
-        <v>47</v>
+      <c r="F19" s="40" t="s">
+        <v>49</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -36166,23 +36388,23 @@
       <c r="AA19" s="2"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>43</v>
+      <c r="A20" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" s="38" t="s">
-        <v>49</v>
+        <v>70</v>
+      </c>
+      <c r="E20" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="46" t="s">
+        <v>116</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -36207,10 +36429,10 @@
       <c r="AA20" s="2"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B21" s="2" t="s">
+      <c r="A21" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -36219,11 +36441,11 @@
       <c r="D21" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E21" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="F21" s="44" t="s">
-        <v>117</v>
+      <c r="E21" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="F21" s="47" t="s">
+        <v>164</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -36248,8 +36470,8 @@
       <c r="AA21" s="2"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="41" t="s">
-        <v>164</v>
+      <c r="A22" s="43" t="s">
+        <v>162</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>7</v>
@@ -36263,7 +36485,7 @@
       <c r="E22" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F22" s="44" t="s">
+      <c r="F22" s="46" t="s">
         <v>85</v>
       </c>
       <c r="G22" s="2"/>
@@ -36289,7 +36511,7 @@
       <c r="AA22" s="2"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="43" t="s">
         <v>165</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -36302,10 +36524,10 @@
         <v>70</v>
       </c>
       <c r="E23" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" s="46" t="s">
         <v>101</v>
-      </c>
-      <c r="F23" s="44" t="s">
-        <v>102</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -36330,10 +36552,10 @@
       <c r="AA23" s="2"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="41" t="s">
+      <c r="A24" s="43" t="s">
         <v>166</v>
       </c>
-      <c r="B24" s="41" t="s">
+      <c r="B24" s="43" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -36342,10 +36564,10 @@
       <c r="D24" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E24" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="F24" s="44" t="s">
+      <c r="E24" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" s="46" t="s">
         <v>167</v>
       </c>
       <c r="G24" s="2"/>
@@ -36371,10 +36593,10 @@
       <c r="AA24" s="2"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="49" t="s">
         <v>168</v>
       </c>
-      <c r="B25" s="41" t="s">
+      <c r="B25" s="43" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -36383,7 +36605,7 @@
       <c r="D25" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="45">
+      <c r="E25" s="48">
         <v>1.29812901E8</v>
       </c>
       <c r="F25" s="47" t="s">
@@ -36412,10 +36634,10 @@
       <c r="AA25" s="2"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="48" t="s">
+      <c r="A26" s="50" t="s">
         <v>170</v>
       </c>
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="43" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -36424,7 +36646,7 @@
       <c r="D26" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="45" t="s">
+      <c r="E26" s="48" t="s">
         <v>171</v>
       </c>
       <c r="F26" s="47" t="s">
@@ -36453,11 +36675,11 @@
       <c r="AA26" s="2"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="48" t="s">
-        <v>208</v>
-      </c>
-      <c r="B27" s="41" t="s">
-        <v>7</v>
+      <c r="A27" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="B27" s="42" t="s">
+        <v>80</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>8</v>
@@ -36465,11 +36687,11 @@
       <c r="D27" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="45" t="s">
-        <v>209</v>
+      <c r="E27" s="48" t="s">
+        <v>212</v>
       </c>
       <c r="F27" s="47" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -36494,10 +36716,10 @@
       <c r="AA27" s="2"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="40" t="s">
-        <v>211</v>
-      </c>
-      <c r="B28" s="41" t="s">
+      <c r="A28" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="B28" s="43" t="s">
         <v>7</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -36506,12 +36728,12 @@
       <c r="D28" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="43">
+      <c r="E28" s="45">
         <f>91-9999999999</f>
         <v>-9999999908</v>
       </c>
       <c r="F28" s="47" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -36536,10 +36758,10 @@
       <c r="AA28" s="2"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="46" t="s">
-        <v>213</v>
-      </c>
-      <c r="B29" s="41" t="s">
+      <c r="A29" s="49" t="s">
+        <v>216</v>
+      </c>
+      <c r="B29" s="43" t="s">
         <v>7</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -36548,11 +36770,11 @@
       <c r="D29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="45" t="s">
-        <v>214</v>
+      <c r="E29" s="48" t="s">
+        <v>217</v>
       </c>
       <c r="F29" s="47" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -36578,9 +36800,9 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="B30" s="41" t="s">
+        <v>219</v>
+      </c>
+      <c r="B30" s="43" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -36598,9 +36820,9 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="B31" s="41" t="s">
+        <v>220</v>
+      </c>
+      <c r="B31" s="43" t="s">
         <v>7</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -36610,17 +36832,17 @@
         <v>9</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B32" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="B32" s="43" t="s">
         <v>7</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -36630,15 +36852,15 @@
         <v>9</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="12" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>7</v>
@@ -36658,7 +36880,7 @@
     </row>
     <row r="34">
       <c r="A34" s="12" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>7</v>
@@ -36678,7 +36900,7 @@
     </row>
     <row r="35">
       <c r="A35" s="12" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>7</v>
@@ -36698,7 +36920,7 @@
     </row>
     <row r="36">
       <c r="A36" s="12" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>7</v>
@@ -36718,7 +36940,7 @@
     </row>
     <row r="37">
       <c r="A37" s="12" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>7</v>
@@ -36738,7 +36960,7 @@
     </row>
     <row r="38">
       <c r="A38" s="12" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>7</v>
@@ -36758,9 +36980,9 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="B39" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="B39" s="43" t="s">
         <v>7</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -36773,7 +36995,7 @@
         <v>9</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
@@ -36799,9 +37021,9 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="B40" s="41" t="s">
+        <v>234</v>
+      </c>
+      <c r="B40" s="43" t="s">
         <v>7</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -36814,7 +37036,7 @@
         <v>9</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
@@ -36840,9 +37062,9 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="B41" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="B41" s="43" t="s">
         <v>7</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -36855,7 +37077,7 @@
         <v>9</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
@@ -37875,7 +38097,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -38164,7 +38386,7 @@
       <c r="E8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="42" t="s">
+      <c r="F8" s="44" t="s">
         <v>29</v>
       </c>
       <c r="G8" s="2"/>
@@ -38205,7 +38427,7 @@
       <c r="E9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="42" t="s">
+      <c r="F9" s="44" t="s">
         <v>32</v>
       </c>
       <c r="G9" s="2"/>
@@ -38243,10 +38465,10 @@
       <c r="D10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F10" s="42" t="s">
+      <c r="E10" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="F10" s="44" t="s">
         <v>35</v>
       </c>
       <c r="G10" s="2"/>
@@ -38287,7 +38509,7 @@
       <c r="E11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="42" t="s">
+      <c r="F11" s="44" t="s">
         <v>38</v>
       </c>
       <c r="G11" s="2"/>
@@ -38328,7 +38550,7 @@
       <c r="E12" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="42" t="s">
+      <c r="F12" s="44" t="s">
         <v>41</v>
       </c>
       <c r="G12" s="2"/>
@@ -38437,7 +38659,7 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>7</v>
@@ -38449,10 +38671,10 @@
         <v>70</v>
       </c>
       <c r="E15" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="F15" s="27" t="s">
         <v>116</v>
-      </c>
-      <c r="F15" s="26" t="s">
-        <v>117</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
@@ -38490,10 +38712,10 @@
         <v>70</v>
       </c>
       <c r="E16" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="F16" s="29" t="s">
         <v>121</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>122</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
@@ -38533,8 +38755,8 @@
       <c r="E17" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="28" t="s">
-        <v>119</v>
+      <c r="F17" s="29" t="s">
+        <v>118</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
@@ -38560,7 +38782,7 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="16" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>7</v>
@@ -38571,11 +38793,11 @@
       <c r="D18" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="49" t="s">
-        <v>124</v>
+      <c r="E18" s="51" t="s">
+        <v>125</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
@@ -38600,49 +38822,28 @@
       <c r="AA18" s="10"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="16" t="s">
-        <v>178</v>
+      <c r="A19" s="13" t="s">
+        <v>176</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="49">
-        <v>60.0</v>
-      </c>
-      <c r="F19" s="26" t="s">
-        <v>179</v>
-      </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="10"/>
-      <c r="W19" s="10"/>
-      <c r="X19" s="10"/>
-      <c r="Y19" s="10"/>
-      <c r="Z19" s="10"/>
-      <c r="AA19" s="10"/>
+      <c r="E19" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="27" t="s">
-        <v>180</v>
+      <c r="A20" s="16" t="s">
+        <v>163</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>7</v>
@@ -38653,10 +38854,10 @@
       <c r="D20" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E20" s="49">
+      <c r="E20" s="51">
         <v>60.0</v>
       </c>
-      <c r="F20" s="26" t="s">
+      <c r="F20" s="27" t="s">
         <v>179</v>
       </c>
       <c r="G20" s="10"/>
@@ -38682,90 +38883,90 @@
       <c r="AA20" s="10"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="B21" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="5" t="s">
+      <c r="A21" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="1" t="s">
         <v>70</v>
       </c>
       <c r="E21" s="51">
         <v>60.0</v>
       </c>
-      <c r="F21" s="52" t="s">
+      <c r="F21" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
-      <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
-      <c r="Z21" s="2"/>
-      <c r="AA21" s="2"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="10"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="52">
+        <v>60.0</v>
+      </c>
+      <c r="F22" s="53" t="s">
+        <v>179</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="16" t="s">
         <v>182</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="F22" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10"/>
-      <c r="V22" s="10"/>
-      <c r="W22" s="10"/>
-      <c r="X22" s="10"/>
-      <c r="Y22" s="10"/>
-      <c r="Z22" s="10"/>
-      <c r="AA22" s="10"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="27" t="s">
-        <v>183</v>
       </c>
       <c r="B23" s="13" t="s">
         <v>7</v>
@@ -38777,10 +38978,10 @@
         <v>70</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="F23" s="53" t="s">
-        <v>134</v>
+        <v>100</v>
+      </c>
+      <c r="F23" s="27" t="s">
+        <v>101</v>
       </c>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
@@ -38805,11 +39006,11 @@
       <c r="AA23" s="10"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="27" t="s">
-        <v>184</v>
+      <c r="A24" s="28" t="s">
+        <v>183</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>8</v>
@@ -38817,11 +39018,11 @@
       <c r="D24" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E24" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="F24" s="53" t="s">
-        <v>137</v>
+      <c r="E24" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" s="54" t="s">
+        <v>135</v>
       </c>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
@@ -38846,8 +39047,8 @@
       <c r="AA24" s="10"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="27" t="s">
-        <v>186</v>
+      <c r="A25" s="28" t="s">
+        <v>184</v>
       </c>
       <c r="B25" s="13" t="s">
         <v>80</v>
@@ -38858,11 +39059,11 @@
       <c r="D25" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E25" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>140</v>
+      <c r="E25" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="F25" s="54" t="s">
+        <v>138</v>
       </c>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
@@ -38887,11 +39088,11 @@
       <c r="AA25" s="10"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="22" t="s">
-        <v>164</v>
+      <c r="A26" s="28" t="s">
+        <v>186</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>8</v>
@@ -38899,11 +39100,11 @@
       <c r="D26" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E26" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="F26" s="26" t="s">
-        <v>85</v>
+      <c r="E26" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>141</v>
       </c>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
@@ -38928,8 +39129,8 @@
       <c r="AA26" s="10"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="25" t="s">
-        <v>187</v>
+      <c r="A27" s="22" t="s">
+        <v>162</v>
       </c>
       <c r="B27" s="13" t="s">
         <v>7</v>
@@ -38940,11 +39141,11 @@
       <c r="D27" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="F27" s="28" t="s">
-        <v>97</v>
+      <c r="E27" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27" s="27" t="s">
+        <v>85</v>
       </c>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
@@ -38969,11 +39170,11 @@
       <c r="AA27" s="10"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="16" t="s">
-        <v>188</v>
+      <c r="A28" s="25" t="s">
+        <v>187</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>8</v>
@@ -38981,11 +39182,11 @@
       <c r="D28" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E28" s="54" t="s">
-        <v>99</v>
-      </c>
-      <c r="F28" s="26" t="s">
-        <v>82</v>
+      <c r="E28" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="F28" s="29" t="s">
+        <v>96</v>
       </c>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
@@ -39011,10 +39212,10 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="16" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>8</v>
@@ -39022,11 +39223,11 @@
       <c r="D29" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E29" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="F29" s="26" t="s">
-        <v>102</v>
+      <c r="E29" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>82</v>
       </c>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
@@ -39051,10 +39252,10 @@
       <c r="AA29" s="10"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="B30" s="27" t="s">
+      <c r="A30" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="B30" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -39063,11 +39264,11 @@
       <c r="D30" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E30" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="F30" s="28" t="s">
-        <v>167</v>
+      <c r="E30" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="F30" s="27" t="s">
+        <v>101</v>
       </c>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
@@ -39092,11 +39293,11 @@
       <c r="AA30" s="10"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="B31" s="27" t="s">
-        <v>80</v>
+      <c r="A31" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>7</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>8</v>
@@ -39104,11 +39305,11 @@
       <c r="D31" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E31" s="49" t="s">
-        <v>191</v>
-      </c>
-      <c r="F31" s="28" t="s">
-        <v>192</v>
+      <c r="E31" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="F31" s="29" t="s">
+        <v>167</v>
       </c>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
@@ -39133,51 +39334,51 @@
       <c r="AA31" s="10"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" s="51" t="s">
+        <v>191</v>
+      </c>
+      <c r="F32" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="10"/>
+      <c r="W32" s="10"/>
+      <c r="X32" s="10"/>
+      <c r="Y32" s="10"/>
+      <c r="Z32" s="10"/>
+      <c r="AA32" s="10"/>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="42" t="s">
         <v>193</v>
       </c>
-      <c r="B32" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E32" s="55" t="s">
-        <v>110</v>
-      </c>
-      <c r="F32" s="56" t="s">
-        <v>111</v>
-      </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
-      <c r="U32" s="2"/>
-      <c r="V32" s="2"/>
-      <c r="W32" s="2"/>
-      <c r="X32" s="2"/>
-      <c r="Y32" s="2"/>
-      <c r="Z32" s="2"/>
-      <c r="AA32" s="2"/>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="40" t="s">
-        <v>194</v>
-      </c>
-      <c r="B33" s="50" t="s">
+      <c r="B33" s="56" t="s">
         <v>80</v>
       </c>
       <c r="C33" s="5" t="s">
@@ -39186,11 +39387,11 @@
       <c r="D33" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E33" s="55" t="s">
-        <v>113</v>
-      </c>
-      <c r="F33" s="56" t="s">
-        <v>114</v>
+      <c r="E33" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="F33" s="58" t="s">
+        <v>110</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -39215,23 +39416,23 @@
       <c r="AA33" s="2"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="57" t="s">
-        <v>168</v>
-      </c>
-      <c r="B34" s="58" t="s">
-        <v>7</v>
+      <c r="A34" s="42" t="s">
+        <v>194</v>
+      </c>
+      <c r="B34" s="56" t="s">
+        <v>80</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="51">
-        <v>1.29812901E8</v>
-      </c>
-      <c r="F34" s="52" t="s">
-        <v>169</v>
+        <v>70</v>
+      </c>
+      <c r="E34" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F34" s="58" t="s">
+        <v>113</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -39257,9 +39458,9 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="59" t="s">
-        <v>170</v>
-      </c>
-      <c r="B35" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="B35" s="60" t="s">
         <v>7</v>
       </c>
       <c r="C35" s="5" t="s">
@@ -39268,11 +39469,11 @@
       <c r="D35" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E35" s="55" t="s">
-        <v>171</v>
-      </c>
-      <c r="F35" s="52" t="s">
-        <v>172</v>
+      <c r="E35" s="52">
+        <v>1.29812901E8</v>
+      </c>
+      <c r="F35" s="53" t="s">
+        <v>169</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -39297,23 +39498,23 @@
       <c r="AA35" s="2"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="59" t="s">
-        <v>208</v>
-      </c>
-      <c r="B36" s="58" t="s">
+      <c r="A36" s="61" t="s">
+        <v>170</v>
+      </c>
+      <c r="B36" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="50" t="s">
+      <c r="C36" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="55" t="s">
-        <v>209</v>
-      </c>
-      <c r="F36" s="52" t="s">
-        <v>210</v>
+      <c r="E36" s="57" t="s">
+        <v>171</v>
+      </c>
+      <c r="F36" s="53" t="s">
+        <v>172</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
@@ -39338,24 +39539,23 @@
       <c r="AA36" s="2"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="59" t="s">
+      <c r="A37" s="61" t="s">
         <v>211</v>
       </c>
-      <c r="B37" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="50" t="s">
+      <c r="B37" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="56" t="s">
         <v>8</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E37" s="51">
-        <f>91-9999999999</f>
-        <v>-9999999908</v>
-      </c>
-      <c r="F37" s="52" t="s">
+      <c r="E37" s="57" t="s">
         <v>212</v>
+      </c>
+      <c r="F37" s="53" t="s">
+        <v>213</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
@@ -39380,22 +39580,23 @@
       <c r="AA37" s="2"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="46" t="s">
-        <v>213</v>
-      </c>
-      <c r="B38" s="41" t="s">
+      <c r="A38" s="61" t="s">
+        <v>214</v>
+      </c>
+      <c r="B38" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E38" s="45" t="s">
-        <v>214</v>
-      </c>
-      <c r="F38" s="47" t="s">
+      <c r="E38" s="52">
+        <f>91-9999999999</f>
+        <v>-9999999908</v>
+      </c>
+      <c r="F38" s="53" t="s">
         <v>215</v>
       </c>
       <c r="G38" s="2"/>
@@ -39421,64 +39622,64 @@
       <c r="AA38" s="2"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="B39" s="13" t="s">
+      <c r="A39" s="49" t="s">
+        <v>216</v>
+      </c>
+      <c r="B39" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="27" t="s">
+      <c r="C39" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E39" s="1">
-        <v>60.0</v>
-      </c>
-      <c r="F39" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="10"/>
-      <c r="S39" s="10"/>
-      <c r="T39" s="10"/>
-      <c r="U39" s="10"/>
-      <c r="V39" s="10"/>
-      <c r="W39" s="10"/>
-      <c r="X39" s="10"/>
-      <c r="Y39" s="10"/>
-      <c r="Z39" s="10"/>
-      <c r="AA39" s="10"/>
+      <c r="D39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="48" t="s">
+        <v>217</v>
+      </c>
+      <c r="F39" s="47" t="s">
+        <v>218</v>
+      </c>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="2"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="2"/>
+      <c r="Z39" s="2"/>
+      <c r="AA39" s="2"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="16" t="s">
-        <v>196</v>
+      <c r="A40" s="20" t="s">
+        <v>208</v>
       </c>
       <c r="B40" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F40" s="26" t="s">
-        <v>125</v>
+      <c r="E40" s="1">
+        <v>60.0</v>
+      </c>
+      <c r="F40" s="29" t="s">
+        <v>209</v>
       </c>
       <c r="G40" s="10"/>
       <c r="H40" s="10"/>
@@ -39503,23 +39704,23 @@
       <c r="AA40" s="10"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="27" t="s">
-        <v>197</v>
+      <c r="A41" s="16" t="s">
+        <v>195</v>
       </c>
       <c r="B41" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E41" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="F41" s="26" t="s">
-        <v>199</v>
+      <c r="E41" s="1">
+        <v>60.0</v>
+      </c>
+      <c r="F41" s="27" t="s">
+        <v>128</v>
       </c>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
@@ -39544,11 +39745,11 @@
       <c r="AA41" s="10"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="60" t="s">
-        <v>200</v>
+      <c r="A42" s="16" t="s">
+        <v>196</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>8</v>
@@ -39556,11 +39757,11 @@
       <c r="D42" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E42" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="F42" s="26" t="s">
-        <v>117</v>
+      <c r="E42" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F42" s="27" t="s">
+        <v>126</v>
       </c>
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
@@ -39585,8 +39786,8 @@
       <c r="AA42" s="10"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="61" t="s">
-        <v>235</v>
+      <c r="A43" s="28" t="s">
+        <v>197</v>
       </c>
       <c r="B43" s="13" t="s">
         <v>7</v>
@@ -39597,11 +39798,11 @@
       <c r="D43" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E43" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="F43" s="53" t="s">
-        <v>203</v>
+      <c r="E43" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="F43" s="27" t="s">
+        <v>199</v>
       </c>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
@@ -39626,11 +39827,11 @@
       <c r="AA43" s="10"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="61" t="s">
-        <v>236</v>
+      <c r="A44" s="62" t="s">
+        <v>200</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>8</v>
@@ -39638,11 +39839,11 @@
       <c r="D44" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E44" s="13">
-        <v>60.0</v>
-      </c>
-      <c r="F44" s="53" t="s">
-        <v>205</v>
+      <c r="E44" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="F44" s="27" t="s">
+        <v>116</v>
       </c>
       <c r="G44" s="10"/>
       <c r="H44" s="10"/>
@@ -39667,8 +39868,8 @@
       <c r="AA44" s="10"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="61" t="s">
-        <v>237</v>
+      <c r="A45" s="63" t="s">
+        <v>239</v>
       </c>
       <c r="B45" s="13" t="s">
         <v>80</v>
@@ -39679,11 +39880,11 @@
       <c r="D45" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E45" s="13">
-        <v>120.0</v>
-      </c>
-      <c r="F45" s="53" t="s">
-        <v>127</v>
+      <c r="E45" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="F45" s="54" t="s">
+        <v>203</v>
       </c>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
@@ -39708,105 +39909,105 @@
       <c r="AA45" s="10"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B46" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" s="2" t="s">
+      <c r="A46" s="63" t="s">
+        <v>240</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
-      <c r="P46" s="2"/>
-      <c r="Q46" s="2"/>
-      <c r="R46" s="2"/>
-      <c r="S46" s="2"/>
-      <c r="T46" s="2"/>
-      <c r="U46" s="2"/>
-      <c r="V46" s="2"/>
-      <c r="W46" s="2"/>
-      <c r="X46" s="2"/>
-      <c r="Y46" s="2"/>
-      <c r="Z46" s="2"/>
-      <c r="AA46" s="2"/>
+      <c r="D46" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E46" s="13">
+        <v>60.0</v>
+      </c>
+      <c r="F46" s="54" t="s">
+        <v>205</v>
+      </c>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="10"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="10"/>
+      <c r="T46" s="10"/>
+      <c r="U46" s="10"/>
+      <c r="V46" s="10"/>
+      <c r="W46" s="10"/>
+      <c r="X46" s="10"/>
+      <c r="Y46" s="10"/>
+      <c r="Z46" s="10"/>
+      <c r="AA46" s="10"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="B47" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" s="2" t="s">
+      <c r="A47" s="63" t="s">
+        <v>241</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="2"/>
-      <c r="R47" s="2"/>
-      <c r="S47" s="2"/>
-      <c r="T47" s="2"/>
-      <c r="U47" s="2"/>
-      <c r="V47" s="2"/>
-      <c r="W47" s="2"/>
-      <c r="X47" s="2"/>
-      <c r="Y47" s="2"/>
-      <c r="Z47" s="2"/>
-      <c r="AA47" s="2"/>
+      <c r="D47" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E47" s="13">
+        <v>120.0</v>
+      </c>
+      <c r="F47" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="10"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="10"/>
+      <c r="T47" s="10"/>
+      <c r="U47" s="10"/>
+      <c r="V47" s="10"/>
+      <c r="W47" s="10"/>
+      <c r="X47" s="10"/>
+      <c r="Y47" s="10"/>
+      <c r="Z47" s="10"/>
+      <c r="AA47" s="10"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B48" s="41" t="s">
-        <v>7</v>
+      <c r="A48" s="43" t="s">
+        <v>242</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>222</v>
+        <v>70</v>
+      </c>
+      <c r="E48" s="65">
+        <v>120.0</v>
+      </c>
+      <c r="F48" s="46" t="s">
+        <v>128</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
@@ -39831,10 +40032,10 @@
       <c r="AA48" s="2"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="62" t="s">
-        <v>238</v>
-      </c>
-      <c r="B49" s="41" t="s">
+      <c r="A49" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B49" s="43" t="s">
         <v>7</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -39843,11 +40044,11 @@
       <c r="D49" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>240</v>
+      <c r="E49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
@@ -39872,23 +40073,23 @@
       <c r="AA49" s="2"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="39" t="s">
-        <v>241</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>143</v>
+      <c r="A50" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B50" s="43" t="s">
+        <v>7</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F50" s="41" t="s">
-        <v>145</v>
+        <v>221</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
@@ -39913,23 +40114,23 @@
       <c r="AA50" s="2"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="39" t="s">
-        <v>242</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>143</v>
+      <c r="A51" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B51" s="43" t="s">
+        <v>7</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F51" s="41" t="s">
-        <v>147</v>
+        <v>224</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
@@ -39954,23 +40155,23 @@
       <c r="AA51" s="2"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="39" t="s">
+      <c r="A52" s="66" t="s">
         <v>243</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>143</v>
+      <c r="B52" s="43" t="s">
+        <v>7</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F52" s="41" t="s">
-        <v>60</v>
+        <v>9</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>245</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
@@ -39995,11 +40196,11 @@
       <c r="AA52" s="2"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="39" t="s">
-        <v>244</v>
+      <c r="A53" s="41" t="s">
+        <v>246</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>43</v>
@@ -40010,8 +40211,8 @@
       <c r="E53" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F53" s="41" t="s">
-        <v>150</v>
+      <c r="F53" s="43" t="s">
+        <v>146</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
@@ -40036,11 +40237,11 @@
       <c r="AA53" s="2"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="39" t="s">
-        <v>245</v>
+      <c r="A54" s="41" t="s">
+        <v>247</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>8</v>
@@ -40051,8 +40252,8 @@
       <c r="E54" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F54" s="41" t="s">
-        <v>152</v>
+      <c r="F54" s="43" t="s">
+        <v>148</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
@@ -40077,11 +40278,11 @@
       <c r="AA54" s="2"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="39" t="s">
-        <v>246</v>
+      <c r="A55" s="41" t="s">
+        <v>248</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>8</v>
@@ -40092,8 +40293,8 @@
       <c r="E55" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F55" s="2" t="s">
-        <v>154</v>
+      <c r="F55" s="43" t="s">
+        <v>60</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
@@ -40118,14 +40319,14 @@
       <c r="AA55" s="2"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="39" t="s">
-        <v>247</v>
+      <c r="A56" s="41" t="s">
+        <v>249</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>70</v>
@@ -40133,8 +40334,8 @@
       <c r="E56" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F56" s="41" t="s">
-        <v>156</v>
+      <c r="F56" s="43" t="s">
+        <v>151</v>
       </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
@@ -40159,11 +40360,11 @@
       <c r="AA56" s="2"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="39" t="s">
-        <v>248</v>
+      <c r="A57" s="41" t="s">
+        <v>250</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>8</v>
@@ -40174,8 +40375,8 @@
       <c r="E57" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F57" s="40" t="s">
-        <v>249</v>
+      <c r="F57" s="43" t="s">
+        <v>153</v>
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
@@ -40200,11 +40401,11 @@
       <c r="AA57" s="2"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="39" t="s">
-        <v>250</v>
+      <c r="A58" s="41" t="s">
+        <v>251</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>8</v>
@@ -40215,8 +40416,8 @@
       <c r="E58" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F58" s="40" t="s">
-        <v>251</v>
+      <c r="F58" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
@@ -40241,11 +40442,11 @@
       <c r="AA58" s="2"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="39" t="s">
+      <c r="A59" s="41" t="s">
         <v>252</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>8</v>
@@ -40256,8 +40457,8 @@
       <c r="E59" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F59" s="40" t="s">
-        <v>253</v>
+      <c r="F59" s="43" t="s">
+        <v>157</v>
       </c>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
@@ -40282,11 +40483,11 @@
       <c r="AA59" s="2"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="39" t="s">
-        <v>254</v>
+      <c r="A60" s="41" t="s">
+        <v>253</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>8</v>
@@ -40297,8 +40498,8 @@
       <c r="E60" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F60" s="40" t="s">
-        <v>255</v>
+      <c r="F60" s="42" t="s">
+        <v>254</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
@@ -40323,23 +40524,23 @@
       <c r="AA60" s="2"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="B61" s="41" t="s">
-        <v>7</v>
+      <c r="A61" s="41" t="s">
+        <v>255</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>230</v>
+        <v>44</v>
+      </c>
+      <c r="F61" s="42" t="s">
+        <v>256</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
@@ -40364,23 +40565,23 @@
       <c r="AA61" s="2"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="B62" s="41" t="s">
-        <v>7</v>
+      <c r="A62" s="41" t="s">
+        <v>257</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>232</v>
+        <v>44</v>
+      </c>
+      <c r="F62" s="42" t="s">
+        <v>258</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
@@ -40405,23 +40606,23 @@
       <c r="AA62" s="2"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="B63" s="41" t="s">
-        <v>7</v>
+      <c r="A63" s="41" t="s">
+        <v>259</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>234</v>
+        <v>44</v>
+      </c>
+      <c r="F63" s="42" t="s">
+        <v>260</v>
       </c>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
@@ -40446,23 +40647,23 @@
       <c r="AA63" s="2"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B64" s="2" t="s">
+      <c r="A64" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B64" s="43" t="s">
         <v>7</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>56</v>
+        <v>233</v>
       </c>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
@@ -40488,9 +40689,9 @@
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B65" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B65" s="43" t="s">
         <v>7</v>
       </c>
       <c r="C65" s="2" t="s">
@@ -40500,10 +40701,10 @@
         <v>9</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>58</v>
+        <v>235</v>
       </c>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
@@ -40529,9 +40730,9 @@
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B66" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B66" s="43" t="s">
         <v>7</v>
       </c>
       <c r="C66" s="2" t="s">
@@ -40541,10 +40742,10 @@
         <v>9</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>60</v>
+        <v>237</v>
       </c>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
@@ -40568,129 +40769,9 @@
       <c r="Z66" s="2"/>
       <c r="AA66" s="2"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
-      <c r="K67" s="2"/>
-      <c r="L67" s="2"/>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
-      <c r="P67" s="2"/>
-      <c r="Q67" s="2"/>
-      <c r="R67" s="2"/>
-      <c r="S67" s="2"/>
-      <c r="T67" s="2"/>
-      <c r="U67" s="2"/>
-      <c r="V67" s="2"/>
-      <c r="W67" s="2"/>
-      <c r="X67" s="2"/>
-      <c r="Y67" s="2"/>
-      <c r="Z67" s="2"/>
-      <c r="AA67" s="2"/>
-    </row>
-    <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
-      <c r="K68" s="2"/>
-      <c r="L68" s="2"/>
-      <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
-      <c r="P68" s="2"/>
-      <c r="Q68" s="2"/>
-      <c r="R68" s="2"/>
-      <c r="S68" s="2"/>
-      <c r="T68" s="2"/>
-      <c r="U68" s="2"/>
-      <c r="V68" s="2"/>
-      <c r="W68" s="2"/>
-      <c r="X68" s="2"/>
-      <c r="Y68" s="2"/>
-      <c r="Z68" s="2"/>
-      <c r="AA68" s="2"/>
-    </row>
-    <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
-      <c r="J69" s="2"/>
-      <c r="K69" s="2"/>
-      <c r="L69" s="2"/>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
-      <c r="P69" s="2"/>
-      <c r="Q69" s="2"/>
-      <c r="R69" s="2"/>
-      <c r="S69" s="2"/>
-      <c r="T69" s="2"/>
-      <c r="U69" s="2"/>
-      <c r="V69" s="2"/>
-      <c r="W69" s="2"/>
-      <c r="X69" s="2"/>
-      <c r="Y69" s="2"/>
-      <c r="Z69" s="2"/>
-      <c r="AA69" s="2"/>
-    </row>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
     <row r="70" ht="15.75" customHeight="1"/>
     <row r="71" ht="15.75" customHeight="1"/>
     <row r="72" ht="15.75" customHeight="1"/>
@@ -41477,22 +41558,21 @@
     <row r="853" ht="15.75" customHeight="1"/>
     <row r="854" ht="15.75" customHeight="1"/>
     <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="E6"/>
     <hyperlink r:id="rId2" ref="E11"/>
     <hyperlink r:id="rId3" ref="E13"/>
     <hyperlink r:id="rId4" ref="E14"/>
-    <hyperlink r:id="rId5" ref="E28"/>
-    <hyperlink r:id="rId6" ref="A34"/>
-    <hyperlink r:id="rId7" ref="A38"/>
-    <hyperlink r:id="rId8" ref="A49"/>
-    <hyperlink r:id="rId9" ref="A61"/>
+    <hyperlink r:id="rId5" ref="E19"/>
+    <hyperlink r:id="rId6" ref="E29"/>
+    <hyperlink r:id="rId7" ref="A35"/>
+    <hyperlink r:id="rId8" ref="A39"/>
+    <hyperlink r:id="rId9" ref="A40"/>
+    <hyperlink r:id="rId10" ref="A52"/>
+    <hyperlink r:id="rId11" ref="A64"/>
   </hyperlinks>
-  <drawing r:id="rId10"/>
+  <drawing r:id="rId12"/>
 </worksheet>
 </file>
 
@@ -41526,7 +41606,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
@@ -41895,7 +41975,7 @@
         <v>9</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>35</v>
@@ -42088,7 +42168,7 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>7</v>
@@ -42099,11 +42179,11 @@
       <c r="D15" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="F15" s="44" t="s">
-        <v>160</v>
+      <c r="E15" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="F15" s="46" t="s">
+        <v>161</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -42128,23 +42208,23 @@
       <c r="AA15" s="2"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="41" t="s">
-        <v>161</v>
+      <c r="A16" s="43" t="s">
+        <v>162</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>162</v>
+        <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="63">
-        <v>1.0</v>
-      </c>
-      <c r="F16" s="64" t="s">
-        <v>163</v>
+        <v>70</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="67" t="s">
+        <v>85</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -42169,23 +42249,23 @@
       <c r="AA16" s="2"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>8</v>
+      <c r="A17" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>43</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F17" s="64" t="s">
-        <v>85</v>
+        <v>9</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="39" t="s">
+        <v>45</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -42210,23 +42290,23 @@
       <c r="AA17" s="2"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="C18" s="36" t="s">
+      <c r="A18" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="C18" s="38" t="s">
         <v>43</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="35" t="s">
+      <c r="E18" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="37" t="s">
-        <v>45</v>
+      <c r="F18" s="40" t="s">
+        <v>47</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -42251,23 +42331,23 @@
       <c r="AA18" s="2"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="C19" s="36" t="s">
+      <c r="A19" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" s="38" t="s">
         <v>43</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="35" t="s">
+      <c r="E19" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="38" t="s">
-        <v>47</v>
+      <c r="F19" s="40" t="s">
+        <v>49</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -42292,23 +42372,23 @@
       <c r="AA19" s="2"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>43</v>
+      <c r="A20" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" s="38" t="s">
-        <v>49</v>
+        <v>70</v>
+      </c>
+      <c r="E20" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="46" t="s">
+        <v>116</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -42333,10 +42413,10 @@
       <c r="AA20" s="2"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B21" s="2" t="s">
+      <c r="A21" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -42345,11 +42425,11 @@
       <c r="D21" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E21" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="F21" s="44" t="s">
-        <v>117</v>
+      <c r="E21" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="F21" s="47" t="s">
+        <v>164</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -42374,8 +42454,8 @@
       <c r="AA21" s="2"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="41" t="s">
-        <v>164</v>
+      <c r="A22" s="43" t="s">
+        <v>162</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>7</v>
@@ -42389,7 +42469,7 @@
       <c r="E22" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F22" s="44" t="s">
+      <c r="F22" s="46" t="s">
         <v>85</v>
       </c>
       <c r="G22" s="2"/>
@@ -42415,7 +42495,7 @@
       <c r="AA22" s="2"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="43" t="s">
         <v>165</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -42428,10 +42508,10 @@
         <v>70</v>
       </c>
       <c r="E23" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" s="46" t="s">
         <v>101</v>
-      </c>
-      <c r="F23" s="44" t="s">
-        <v>102</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -42456,10 +42536,10 @@
       <c r="AA23" s="2"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="41" t="s">
+      <c r="A24" s="43" t="s">
         <v>166</v>
       </c>
-      <c r="B24" s="41" t="s">
+      <c r="B24" s="43" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -42468,10 +42548,10 @@
       <c r="D24" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E24" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="F24" s="44" t="s">
+      <c r="E24" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" s="46" t="s">
         <v>167</v>
       </c>
       <c r="G24" s="2"/>
@@ -42497,10 +42577,10 @@
       <c r="AA24" s="2"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="65" t="s">
+      <c r="A25" s="68" t="s">
         <v>168</v>
       </c>
-      <c r="B25" s="41" t="s">
+      <c r="B25" s="43" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -42509,10 +42589,10 @@
       <c r="D25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="66">
+      <c r="E25" s="69">
         <v>1.29812901E8</v>
       </c>
-      <c r="F25" s="44" t="s">
+      <c r="F25" s="46" t="s">
         <v>169</v>
       </c>
       <c r="G25" s="2"/>
@@ -42538,10 +42618,10 @@
       <c r="AA25" s="2"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="43" t="s">
         <v>170</v>
       </c>
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="43" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -42550,10 +42630,10 @@
       <c r="D26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="43" t="s">
+      <c r="E26" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="F26" s="44" t="s">
+      <c r="F26" s="46" t="s">
         <v>172</v>
       </c>
       <c r="G26" s="2"/>
@@ -42579,11 +42659,11 @@
       <c r="AA26" s="2"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="41" t="s">
-        <v>208</v>
-      </c>
-      <c r="B27" s="41" t="s">
-        <v>7</v>
+      <c r="A27" s="43" t="s">
+        <v>211</v>
+      </c>
+      <c r="B27" s="42" t="s">
+        <v>80</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>8</v>
@@ -42591,11 +42671,11 @@
       <c r="D27" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="43" t="s">
-        <v>209</v>
-      </c>
-      <c r="F27" s="44" t="s">
-        <v>210</v>
+      <c r="E27" s="45" t="s">
+        <v>212</v>
+      </c>
+      <c r="F27" s="46" t="s">
+        <v>213</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -42620,10 +42700,10 @@
       <c r="AA27" s="2"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="41" t="s">
-        <v>211</v>
-      </c>
-      <c r="B28" s="41" t="s">
+      <c r="A28" s="43" t="s">
+        <v>214</v>
+      </c>
+      <c r="B28" s="43" t="s">
         <v>7</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -42632,12 +42712,12 @@
       <c r="D28" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="66">
+      <c r="E28" s="69">
         <f>91-9999999999</f>
         <v>-9999999908</v>
       </c>
-      <c r="F28" s="44" t="s">
-        <v>212</v>
+      <c r="F28" s="46" t="s">
+        <v>215</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -42662,10 +42742,10 @@
       <c r="AA28" s="2"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="65" t="s">
-        <v>213</v>
-      </c>
-      <c r="B29" s="41" t="s">
+      <c r="A29" s="68" t="s">
+        <v>216</v>
+      </c>
+      <c r="B29" s="43" t="s">
         <v>7</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -42674,11 +42754,11 @@
       <c r="D29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="43" t="s">
-        <v>214</v>
-      </c>
-      <c r="F29" s="44" t="s">
-        <v>215</v>
+      <c r="E29" s="45" t="s">
+        <v>217</v>
+      </c>
+      <c r="F29" s="46" t="s">
+        <v>218</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -42703,23 +42783,23 @@
       <c r="AA29" s="2"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B30" s="41" t="s">
+      <c r="A30" s="66" t="s">
+        <v>243</v>
+      </c>
+      <c r="B30" s="43" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>54</v>
+      <c r="D30" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>245</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -42745,9 +42825,9 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="B31" s="41" t="s">
+        <v>219</v>
+      </c>
+      <c r="B31" s="43" t="s">
         <v>7</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -42757,10 +42837,10 @@
         <v>9</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>218</v>
+        <v>9</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>219</v>
+        <v>54</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -42788,7 +42868,7 @@
       <c r="A32" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B32" s="41" t="s">
+      <c r="B32" s="43" t="s">
         <v>7</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -42826,10 +42906,10 @@
       <c r="AA32" s="2"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="B33" s="41" t="s">
+      <c r="A33" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B33" s="43" t="s">
         <v>7</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -42838,11 +42918,11 @@
       <c r="D33" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>259</v>
+      <c r="E33" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -42868,9 +42948,9 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="B34" s="41" t="s">
+        <v>262</v>
+      </c>
+      <c r="B34" s="43" t="s">
         <v>7</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -42880,10 +42960,10 @@
         <v>9</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>124</v>
+        <v>263</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -42909,9 +42989,9 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="B35" s="41" t="s">
+        <v>265</v>
+      </c>
+      <c r="B35" s="43" t="s">
         <v>7</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -42920,11 +43000,11 @@
       <c r="D35" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E35" s="3">
-        <v>100.0</v>
+      <c r="E35" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -42949,23 +43029,23 @@
       <c r="AA35" s="2"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B36" s="2" t="s">
+      <c r="A36" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B36" s="43" t="s">
         <v>7</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>56</v>
+      <c r="E36" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>268</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
@@ -42991,13 +43071,13 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>9</v>
@@ -43006,7 +43086,7 @@
         <v>44</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
@@ -43032,7 +43112,7 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>7</v>
@@ -43047,7 +43127,7 @@
         <v>44</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
@@ -43073,7 +43153,7 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>7</v>
@@ -43088,7 +43168,7 @@
         <v>44</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
@@ -43114,7 +43194,7 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>7</v>
@@ -43129,7 +43209,7 @@
         <v>44</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
@@ -43155,7 +43235,7 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>7</v>
@@ -43170,7 +43250,7 @@
         <v>44</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
@@ -43195,23 +43275,23 @@
       <c r="AA41" s="2"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="39" t="s">
-        <v>241</v>
+      <c r="A42" s="2" t="s">
+        <v>231</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>143</v>
+        <v>7</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F42" s="41" t="s">
-        <v>145</v>
+      <c r="F42" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
@@ -43236,14 +43316,14 @@
       <c r="AA42" s="2"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="39" t="s">
-        <v>242</v>
+      <c r="A43" s="41" t="s">
+        <v>246</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>70</v>
@@ -43251,8 +43331,8 @@
       <c r="E43" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F43" s="41" t="s">
-        <v>147</v>
+      <c r="F43" s="43" t="s">
+        <v>146</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
@@ -43277,11 +43357,11 @@
       <c r="AA43" s="2"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="39" t="s">
-        <v>243</v>
+      <c r="A44" s="41" t="s">
+        <v>247</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>8</v>
@@ -43292,8 +43372,8 @@
       <c r="E44" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F44" s="41" t="s">
-        <v>60</v>
+      <c r="F44" s="43" t="s">
+        <v>148</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
@@ -43318,14 +43398,14 @@
       <c r="AA44" s="2"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="39" t="s">
-        <v>244</v>
+      <c r="A45" s="41" t="s">
+        <v>248</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>70</v>
@@ -43333,8 +43413,8 @@
       <c r="E45" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F45" s="41" t="s">
-        <v>150</v>
+      <c r="F45" s="43" t="s">
+        <v>60</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
@@ -43359,14 +43439,14 @@
       <c r="AA45" s="2"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="39" t="s">
-        <v>245</v>
+      <c r="A46" s="41" t="s">
+        <v>249</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>70</v>
@@ -43374,8 +43454,8 @@
       <c r="E46" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F46" s="41" t="s">
-        <v>152</v>
+      <c r="F46" s="43" t="s">
+        <v>151</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
@@ -43400,11 +43480,11 @@
       <c r="AA46" s="2"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="39" t="s">
-        <v>246</v>
+      <c r="A47" s="41" t="s">
+        <v>250</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>8</v>
@@ -43415,8 +43495,8 @@
       <c r="E47" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F47" s="2" t="s">
-        <v>154</v>
+      <c r="F47" s="43" t="s">
+        <v>153</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
@@ -43441,11 +43521,11 @@
       <c r="AA47" s="2"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="39" t="s">
-        <v>247</v>
+      <c r="A48" s="41" t="s">
+        <v>251</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>8</v>
@@ -43456,8 +43536,8 @@
       <c r="E48" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F48" s="41" t="s">
-        <v>156</v>
+      <c r="F48" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
@@ -43482,11 +43562,11 @@
       <c r="AA48" s="2"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="39" t="s">
-        <v>248</v>
+      <c r="A49" s="41" t="s">
+        <v>252</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>8</v>
@@ -43497,8 +43577,8 @@
       <c r="E49" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F49" s="40" t="s">
-        <v>249</v>
+      <c r="F49" s="43" t="s">
+        <v>157</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
@@ -43523,11 +43603,11 @@
       <c r="AA49" s="2"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="39" t="s">
-        <v>250</v>
+      <c r="A50" s="41" t="s">
+        <v>253</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>8</v>
@@ -43538,8 +43618,8 @@
       <c r="E50" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F50" s="40" t="s">
-        <v>251</v>
+      <c r="F50" s="42" t="s">
+        <v>254</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
@@ -43564,11 +43644,11 @@
       <c r="AA50" s="2"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="39" t="s">
-        <v>252</v>
+      <c r="A51" s="41" t="s">
+        <v>255</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>8</v>
@@ -43579,8 +43659,8 @@
       <c r="E51" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F51" s="40" t="s">
-        <v>253</v>
+      <c r="F51" s="42" t="s">
+        <v>256</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
@@ -43605,11 +43685,11 @@
       <c r="AA51" s="2"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="39" t="s">
-        <v>254</v>
+      <c r="A52" s="41" t="s">
+        <v>257</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>8</v>
@@ -43620,8 +43700,8 @@
       <c r="E52" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F52" s="40" t="s">
-        <v>255</v>
+      <c r="F52" s="42" t="s">
+        <v>258</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
@@ -43646,23 +43726,23 @@
       <c r="AA52" s="2"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="B53" s="41" t="s">
-        <v>7</v>
+      <c r="A53" s="41" t="s">
+        <v>259</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>230</v>
+        <v>44</v>
+      </c>
+      <c r="F53" s="42" t="s">
+        <v>260</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
@@ -43687,10 +43767,10 @@
       <c r="AA53" s="2"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="B54" s="41" t="s">
+      <c r="A54" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B54" s="43" t="s">
         <v>7</v>
       </c>
       <c r="C54" s="2" t="s">
@@ -43703,7 +43783,7 @@
         <v>9</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
@@ -43729,9 +43809,9 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="B55" s="41" t="s">
+        <v>234</v>
+      </c>
+      <c r="B55" s="43" t="s">
         <v>7</v>
       </c>
       <c r="C55" s="2" t="s">
@@ -43744,7 +43824,7 @@
         <v>9</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
@@ -43768,7 +43848,47 @@
       <c r="Z55" s="2"/>
       <c r="AA55" s="2"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B56" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+      <c r="T56" s="2"/>
+      <c r="U56" s="2"/>
+      <c r="V56" s="2"/>
+      <c r="W56" s="2"/>
+      <c r="X56" s="2"/>
+      <c r="Y56" s="2"/>
+      <c r="Z56" s="2"/>
+      <c r="AA56" s="2"/>
+    </row>
     <row r="57" ht="15.75" customHeight="1"/>
     <row r="58" ht="15.75" customHeight="1"/>
     <row r="59" ht="15.75" customHeight="1"/>
@@ -44650,6 +44770,7 @@
     <row r="935" ht="15.75" customHeight="1"/>
     <row r="936" ht="15.75" customHeight="1"/>
     <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="E6"/>
@@ -44658,9 +44779,10 @@
     <hyperlink r:id="rId4" ref="E14"/>
     <hyperlink r:id="rId5" ref="A25"/>
     <hyperlink r:id="rId6" ref="A29"/>
-    <hyperlink r:id="rId7" ref="A53"/>
+    <hyperlink r:id="rId7" ref="A30"/>
+    <hyperlink r:id="rId8" ref="A54"/>
   </hyperlinks>
-  <drawing r:id="rId8"/>
+  <drawing r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -44694,7 +44816,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
@@ -45062,8 +45184,8 @@
       <c r="D10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>173</v>
+      <c r="E10" s="3" t="s">
+        <v>269</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>35</v>
@@ -45256,7 +45378,7 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>7</v>
@@ -45267,11 +45389,11 @@
       <c r="D15" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="43" t="s">
+      <c r="E15" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="F15" s="46" t="s">
         <v>116</v>
-      </c>
-      <c r="F15" s="44" t="s">
-        <v>117</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -45296,7 +45418,7 @@
       <c r="AA15" s="2"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="43" t="s">
         <v>174</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -45308,11 +45430,11 @@
       <c r="D16" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E16" s="43" t="s">
+      <c r="E16" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="F16" s="46" t="s">
         <v>121</v>
-      </c>
-      <c r="F16" s="44" t="s">
-        <v>122</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -45337,7 +45459,7 @@
       <c r="AA16" s="2"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="43" t="s">
         <v>175</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -45349,11 +45471,11 @@
       <c r="D17" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E17" s="43" t="s">
+      <c r="E17" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="44" t="s">
-        <v>119</v>
+      <c r="F17" s="46" t="s">
+        <v>118</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -45378,49 +45500,28 @@
       <c r="AA17" s="2"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="B18" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="F18" s="2" t="s">
+      <c r="E18" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="43" t="s">
         <v>177</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
-      <c r="Z18" s="2"/>
-      <c r="AA18" s="2"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="41" t="s">
-        <v>178</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>7</v>
@@ -45431,11 +45532,11 @@
       <c r="D19" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="66">
-        <v>60.0</v>
-      </c>
-      <c r="F19" s="44" t="s">
-        <v>179</v>
+      <c r="E19" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>178</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -45460,8 +45561,8 @@
       <c r="AA19" s="2"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="41" t="s">
-        <v>180</v>
+      <c r="A20" s="43" t="s">
+        <v>163</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>7</v>
@@ -45472,10 +45573,10 @@
       <c r="D20" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E20" s="66">
+      <c r="E20" s="69">
         <v>60.0</v>
       </c>
-      <c r="F20" s="44" t="s">
+      <c r="F20" s="46" t="s">
         <v>179</v>
       </c>
       <c r="G20" s="2"/>
@@ -45501,11 +45602,11 @@
       <c r="AA20" s="2"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="41" t="s">
-        <v>181</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>7</v>
+      <c r="A21" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>8</v>
@@ -45513,10 +45614,10 @@
       <c r="D21" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E21" s="66">
+      <c r="E21" s="69">
         <v>60.0</v>
       </c>
-      <c r="F21" s="44" t="s">
+      <c r="F21" s="46" t="s">
         <v>179</v>
       </c>
       <c r="G21" s="2"/>
@@ -45542,11 +45643,11 @@
       <c r="AA21" s="2"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="41" t="s">
-        <v>182</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>7</v>
+      <c r="A22" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>8</v>
@@ -45554,11 +45655,11 @@
       <c r="D22" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F22" s="44" t="s">
-        <v>102</v>
+      <c r="E22" s="69">
+        <v>60.0</v>
+      </c>
+      <c r="F22" s="46" t="s">
+        <v>179</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -45583,8 +45684,8 @@
       <c r="AA22" s="2"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="41" t="s">
-        <v>183</v>
+      <c r="A23" s="43" t="s">
+        <v>182</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>7</v>
@@ -45596,10 +45697,10 @@
         <v>70</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F23" s="44" t="s">
-        <v>134</v>
+        <v>100</v>
+      </c>
+      <c r="F23" s="46" t="s">
+        <v>101</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -45624,11 +45725,11 @@
       <c r="AA23" s="2"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="41" t="s">
-        <v>184</v>
+      <c r="A24" s="43" t="s">
+        <v>183</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>8</v>
@@ -45637,10 +45738,10 @@
         <v>70</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F24" s="44" t="s">
-        <v>137</v>
+        <v>87</v>
+      </c>
+      <c r="F24" s="46" t="s">
+        <v>135</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -45665,8 +45766,8 @@
       <c r="AA24" s="2"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="41" t="s">
-        <v>186</v>
+      <c r="A25" s="43" t="s">
+        <v>184</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>80</v>
@@ -45678,10 +45779,10 @@
         <v>70</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>140</v>
+        <v>185</v>
+      </c>
+      <c r="F25" s="46" t="s">
+        <v>138</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -45706,11 +45807,11 @@
       <c r="AA25" s="2"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="41" t="s">
-        <v>164</v>
+      <c r="A26" s="43" t="s">
+        <v>186</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>8</v>
@@ -45719,10 +45820,10 @@
         <v>70</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F26" s="44" t="s">
-        <v>85</v>
+        <v>140</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -45747,8 +45848,8 @@
       <c r="AA26" s="2"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="41" t="s">
-        <v>187</v>
+      <c r="A27" s="43" t="s">
+        <v>162</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>7</v>
@@ -45759,11 +45860,11 @@
       <c r="D27" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="F27" s="44" t="s">
-        <v>97</v>
+      <c r="E27" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27" s="46" t="s">
+        <v>85</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -45788,11 +45889,11 @@
       <c r="AA27" s="2"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="41" t="s">
-        <v>188</v>
+      <c r="A28" s="43" t="s">
+        <v>187</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>8</v>
@@ -45800,11 +45901,11 @@
       <c r="D28" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E28" s="67" t="s">
-        <v>99</v>
-      </c>
-      <c r="F28" s="44" t="s">
-        <v>82</v>
+      <c r="E28" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="F28" s="46" t="s">
+        <v>96</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -45829,11 +45930,11 @@
       <c r="AA28" s="2"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="41" t="s">
-        <v>165</v>
+      <c r="A29" s="43" t="s">
+        <v>188</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>8</v>
@@ -45841,11 +45942,11 @@
       <c r="D29" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F29" s="44" t="s">
-        <v>102</v>
+      <c r="E29" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="F29" s="46" t="s">
+        <v>82</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -45870,10 +45971,10 @@
       <c r="AA29" s="2"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="41" t="s">
-        <v>166</v>
-      </c>
-      <c r="B30" s="41" t="s">
+      <c r="A30" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -45882,11 +45983,11 @@
       <c r="D30" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E30" s="43" t="s">
-        <v>189</v>
-      </c>
-      <c r="F30" s="44" t="s">
-        <v>167</v>
+      <c r="E30" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F30" s="46" t="s">
+        <v>101</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -45911,11 +46012,11 @@
       <c r="AA30" s="2"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="41" t="s">
-        <v>190</v>
-      </c>
-      <c r="B31" s="41" t="s">
-        <v>80</v>
+      <c r="A31" s="43" t="s">
+        <v>166</v>
+      </c>
+      <c r="B31" s="43" t="s">
+        <v>7</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>8</v>
@@ -45923,11 +46024,11 @@
       <c r="D31" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E31" s="43" t="s">
-        <v>191</v>
-      </c>
-      <c r="F31" s="44" t="s">
-        <v>192</v>
+      <c r="E31" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="F31" s="46" t="s">
+        <v>167</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -45952,10 +46053,10 @@
       <c r="AA31" s="2"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="41" t="s">
-        <v>193</v>
-      </c>
-      <c r="B32" s="2" t="s">
+      <c r="A32" s="43" t="s">
+        <v>190</v>
+      </c>
+      <c r="B32" s="43" t="s">
         <v>80</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -45964,11 +46065,11 @@
       <c r="D32" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E32" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="F32" s="44" t="s">
-        <v>111</v>
+      <c r="E32" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="F32" s="46" t="s">
+        <v>192</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -45993,8 +46094,8 @@
       <c r="AA32" s="2"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="41" t="s">
-        <v>194</v>
+      <c r="A33" s="43" t="s">
+        <v>193</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>80</v>
@@ -46005,11 +46106,11 @@
       <c r="D33" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E33" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="F33" s="44" t="s">
-        <v>114</v>
+      <c r="E33" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="F33" s="46" t="s">
+        <v>110</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -46034,23 +46135,23 @@
       <c r="AA33" s="2"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="65" t="s">
-        <v>168</v>
-      </c>
-      <c r="B34" s="41" t="s">
-        <v>7</v>
+      <c r="A34" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="66">
-        <v>1.29812901E8</v>
-      </c>
-      <c r="F34" s="44" t="s">
-        <v>169</v>
+        <v>70</v>
+      </c>
+      <c r="E34" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="F34" s="46" t="s">
+        <v>113</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -46075,10 +46176,10 @@
       <c r="AA34" s="2"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="41" t="s">
-        <v>170</v>
-      </c>
-      <c r="B35" s="41" t="s">
+      <c r="A35" s="68" t="s">
+        <v>168</v>
+      </c>
+      <c r="B35" s="43" t="s">
         <v>7</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -46087,11 +46188,11 @@
       <c r="D35" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E35" s="43" t="s">
-        <v>171</v>
-      </c>
-      <c r="F35" s="44" t="s">
-        <v>172</v>
+      <c r="E35" s="69">
+        <v>1.29812901E8</v>
+      </c>
+      <c r="F35" s="46" t="s">
+        <v>169</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -46116,10 +46217,10 @@
       <c r="AA35" s="2"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="41" t="s">
-        <v>208</v>
-      </c>
-      <c r="B36" s="41" t="s">
+      <c r="A36" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="B36" s="43" t="s">
         <v>7</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -46128,11 +46229,11 @@
       <c r="D36" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="43" t="s">
-        <v>209</v>
-      </c>
-      <c r="F36" s="44" t="s">
-        <v>210</v>
+      <c r="E36" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="F36" s="46" t="s">
+        <v>172</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
@@ -46157,11 +46258,11 @@
       <c r="AA36" s="2"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="41" t="s">
+      <c r="A37" s="43" t="s">
         <v>211</v>
       </c>
-      <c r="B37" s="41" t="s">
-        <v>7</v>
+      <c r="B37" s="42" t="s">
+        <v>80</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>8</v>
@@ -46169,12 +46270,11 @@
       <c r="D37" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E37" s="66">
-        <f>91-9999999999</f>
-        <v>-9999999908</v>
-      </c>
-      <c r="F37" s="44" t="s">
+      <c r="E37" s="45" t="s">
         <v>212</v>
+      </c>
+      <c r="F37" s="46" t="s">
+        <v>213</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
@@ -46199,10 +46299,10 @@
       <c r="AA37" s="2"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="65" t="s">
-        <v>213</v>
-      </c>
-      <c r="B38" s="41" t="s">
+      <c r="A38" s="43" t="s">
+        <v>214</v>
+      </c>
+      <c r="B38" s="43" t="s">
         <v>7</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -46211,10 +46311,11 @@
       <c r="D38" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E38" s="43" t="s">
-        <v>214</v>
-      </c>
-      <c r="F38" s="44" t="s">
+      <c r="E38" s="69">
+        <f>91-9999999999</f>
+        <v>-9999999908</v>
+      </c>
+      <c r="F38" s="46" t="s">
         <v>215</v>
       </c>
       <c r="G38" s="2"/>
@@ -46241,9 +46342,9 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="68" t="s">
-        <v>264</v>
-      </c>
-      <c r="B39" s="41" t="s">
+        <v>216</v>
+      </c>
+      <c r="B39" s="43" t="s">
         <v>7</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -46253,10 +46354,10 @@
         <v>9</v>
       </c>
       <c r="E39" s="45" t="s">
-        <v>265</v>
-      </c>
-      <c r="F39" s="47" t="s">
-        <v>266</v>
+        <v>217</v>
+      </c>
+      <c r="F39" s="46" t="s">
+        <v>218</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
@@ -46281,10 +46382,10 @@
       <c r="AA39" s="2"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="46" t="s">
-        <v>267</v>
-      </c>
-      <c r="B40" s="41" t="s">
+      <c r="A40" s="71" t="s">
+        <v>270</v>
+      </c>
+      <c r="B40" s="43" t="s">
         <v>7</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -46293,11 +46394,11 @@
       <c r="D40" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E40" s="45" t="s">
-        <v>265</v>
+      <c r="E40" s="48" t="s">
+        <v>271</v>
       </c>
       <c r="F40" s="47" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
@@ -46322,23 +46423,23 @@
       <c r="AA40" s="2"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="41" t="s">
-        <v>195</v>
-      </c>
-      <c r="B41" s="2" t="s">
+      <c r="A41" s="49" t="s">
+        <v>273</v>
+      </c>
+      <c r="B41" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="41" t="s">
+      <c r="C41" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E41" s="63">
-        <v>60.0</v>
-      </c>
-      <c r="F41" s="44" t="s">
-        <v>127</v>
+        <v>9</v>
+      </c>
+      <c r="E41" s="48" t="s">
+        <v>271</v>
+      </c>
+      <c r="F41" s="47" t="s">
+        <v>274</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
@@ -46363,64 +46464,64 @@
       <c r="AA41" s="2"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="B42" s="2" t="s">
+      <c r="A42" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="B42" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F42" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-      <c r="U42" s="2"/>
-      <c r="V42" s="2"/>
-      <c r="W42" s="2"/>
-      <c r="X42" s="2"/>
-      <c r="Y42" s="2"/>
-      <c r="Z42" s="2"/>
-      <c r="AA42" s="2"/>
+      <c r="E42" s="1">
+        <v>60.0</v>
+      </c>
+      <c r="F42" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="10"/>
+      <c r="T42" s="10"/>
+      <c r="U42" s="10"/>
+      <c r="V42" s="10"/>
+      <c r="W42" s="10"/>
+      <c r="X42" s="10"/>
+      <c r="Y42" s="10"/>
+      <c r="Z42" s="10"/>
+      <c r="AA42" s="10"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="41" t="s">
-        <v>197</v>
+      <c r="A43" s="43" t="s">
+        <v>195</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="43" t="s">
         <v>8</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E43" s="43" t="s">
-        <v>198</v>
-      </c>
-      <c r="F43" s="44" t="s">
-        <v>199</v>
+      <c r="E43" s="65">
+        <v>60.0</v>
+      </c>
+      <c r="F43" s="46" t="s">
+        <v>128</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
@@ -46445,11 +46546,11 @@
       <c r="AA43" s="2"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="41" t="s">
-        <v>200</v>
+      <c r="A44" s="43" t="s">
+        <v>196</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>8</v>
@@ -46458,10 +46559,10 @@
         <v>70</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F44" s="44" t="s">
-        <v>117</v>
+        <v>125</v>
+      </c>
+      <c r="F44" s="46" t="s">
+        <v>126</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
@@ -46486,8 +46587,8 @@
       <c r="AA44" s="2"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="41" t="s">
-        <v>269</v>
+      <c r="A45" s="43" t="s">
+        <v>197</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>7</v>
@@ -46498,11 +46599,11 @@
       <c r="D45" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F45" s="44" t="s">
-        <v>203</v>
+      <c r="E45" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="F45" s="46" t="s">
+        <v>199</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
@@ -46527,11 +46628,11 @@
       <c r="AA45" s="2"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="41" t="s">
-        <v>270</v>
+      <c r="A46" s="43" t="s">
+        <v>200</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>8</v>
@@ -46539,11 +46640,11 @@
       <c r="D46" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E46" s="63">
-        <v>60.0</v>
-      </c>
-      <c r="F46" s="44" t="s">
-        <v>205</v>
+      <c r="E46" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F46" s="46" t="s">
+        <v>116</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
@@ -46568,10 +46669,10 @@
       <c r="AA46" s="2"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="41" t="s">
-        <v>271</v>
-      </c>
-      <c r="B47" s="2" t="s">
+      <c r="A47" s="43" t="s">
+        <v>275</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>80</v>
       </c>
       <c r="C47" s="2" t="s">
@@ -46580,11 +46681,11 @@
       <c r="D47" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E47" s="63">
-        <v>120.0</v>
-      </c>
-      <c r="F47" s="44" t="s">
-        <v>127</v>
+      <c r="E47" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F47" s="46" t="s">
+        <v>203</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
@@ -46609,23 +46710,23 @@
       <c r="AA47" s="2"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B48" s="41" t="s">
-        <v>7</v>
+      <c r="A48" s="43" t="s">
+        <v>276</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
+      </c>
+      <c r="E48" s="65">
+        <v>60.0</v>
+      </c>
+      <c r="F48" s="46" t="s">
+        <v>205</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
@@ -46650,23 +46751,23 @@
       <c r="AA48" s="2"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="B49" s="41" t="s">
-        <v>7</v>
+      <c r="A49" s="43" t="s">
+        <v>277</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>219</v>
+        <v>70</v>
+      </c>
+      <c r="E49" s="65">
+        <v>120.0</v>
+      </c>
+      <c r="F49" s="46" t="s">
+        <v>128</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
@@ -46691,23 +46792,23 @@
       <c r="AA49" s="2"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B50" s="41" t="s">
-        <v>7</v>
+      <c r="A50" s="43" t="s">
+        <v>278</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>222</v>
+        <v>70</v>
+      </c>
+      <c r="E50" s="65">
+        <v>120.0</v>
+      </c>
+      <c r="F50" s="46" t="s">
+        <v>128</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
@@ -46732,10 +46833,10 @@
       <c r="AA50" s="2"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="B51" s="41" t="s">
+      <c r="A51" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B51" s="43" t="s">
         <v>7</v>
       </c>
       <c r="C51" s="2" t="s">
@@ -46745,10 +46846,10 @@
         <v>9</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>239</v>
+        <v>9</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>240</v>
+        <v>54</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
@@ -46773,23 +46874,23 @@
       <c r="AA51" s="2"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="69" t="s">
-        <v>241</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>143</v>
+      <c r="A52" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B52" s="43" t="s">
+        <v>7</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F52" s="41" t="s">
-        <v>145</v>
+        <v>221</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
@@ -46814,23 +46915,23 @@
       <c r="AA52" s="2"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="69" t="s">
-        <v>242</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>143</v>
+      <c r="A53" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B53" s="43" t="s">
+        <v>7</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F53" s="41" t="s">
-        <v>147</v>
+        <v>224</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
@@ -46855,23 +46956,23 @@
       <c r="AA53" s="2"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="69" t="s">
+      <c r="A54" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>143</v>
+      <c r="B54" s="43" t="s">
+        <v>7</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F54" s="41" t="s">
-        <v>60</v>
+        <v>244</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
@@ -46896,11 +46997,11 @@
       <c r="AA54" s="2"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="69" t="s">
-        <v>244</v>
+      <c r="A55" s="72" t="s">
+        <v>246</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>43</v>
@@ -46911,8 +47012,8 @@
       <c r="E55" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F55" s="41" t="s">
-        <v>150</v>
+      <c r="F55" s="43" t="s">
+        <v>146</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
@@ -46937,11 +47038,11 @@
       <c r="AA55" s="2"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="69" t="s">
-        <v>245</v>
+      <c r="A56" s="72" t="s">
+        <v>247</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>8</v>
@@ -46952,8 +47053,8 @@
       <c r="E56" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F56" s="41" t="s">
-        <v>152</v>
+      <c r="F56" s="43" t="s">
+        <v>148</v>
       </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
@@ -46978,11 +47079,11 @@
       <c r="AA56" s="2"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="69" t="s">
-        <v>246</v>
+      <c r="A57" s="72" t="s">
+        <v>248</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>8</v>
@@ -46993,8 +47094,8 @@
       <c r="E57" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F57" s="2" t="s">
-        <v>154</v>
+      <c r="F57" s="43" t="s">
+        <v>60</v>
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
@@ -47019,14 +47120,14 @@
       <c r="AA57" s="2"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="69" t="s">
-        <v>247</v>
+      <c r="A58" s="72" t="s">
+        <v>249</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>70</v>
@@ -47034,8 +47135,8 @@
       <c r="E58" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F58" s="41" t="s">
-        <v>156</v>
+      <c r="F58" s="43" t="s">
+        <v>151</v>
       </c>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
@@ -47060,11 +47161,11 @@
       <c r="AA58" s="2"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="69" t="s">
-        <v>248</v>
+      <c r="A59" s="72" t="s">
+        <v>250</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>8</v>
@@ -47075,8 +47176,8 @@
       <c r="E59" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F59" s="41" t="s">
-        <v>249</v>
+      <c r="F59" s="43" t="s">
+        <v>153</v>
       </c>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
@@ -47101,11 +47202,11 @@
       <c r="AA59" s="2"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="69" t="s">
-        <v>250</v>
+      <c r="A60" s="72" t="s">
+        <v>251</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>8</v>
@@ -47116,8 +47217,8 @@
       <c r="E60" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F60" s="41" t="s">
-        <v>251</v>
+      <c r="F60" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
@@ -47142,11 +47243,11 @@
       <c r="AA60" s="2"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="69" t="s">
+      <c r="A61" s="72" t="s">
         <v>252</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>8</v>
@@ -47157,8 +47258,8 @@
       <c r="E61" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F61" s="41" t="s">
-        <v>253</v>
+      <c r="F61" s="43" t="s">
+        <v>157</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
@@ -47183,11 +47284,11 @@
       <c r="AA61" s="2"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="69" t="s">
-        <v>254</v>
+      <c r="A62" s="72" t="s">
+        <v>253</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>8</v>
@@ -47198,8 +47299,8 @@
       <c r="E62" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F62" s="41" t="s">
-        <v>255</v>
+      <c r="F62" s="43" t="s">
+        <v>254</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
@@ -47224,23 +47325,23 @@
       <c r="AA62" s="2"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="2" t="s">
-        <v>223</v>
+      <c r="A63" s="72" t="s">
+        <v>255</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>7</v>
+        <v>144</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F63" s="2" t="s">
-        <v>56</v>
+      <c r="F63" s="43" t="s">
+        <v>256</v>
       </c>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
@@ -47265,23 +47366,23 @@
       <c r="AA63" s="2"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="2" t="s">
-        <v>224</v>
+      <c r="A64" s="72" t="s">
+        <v>257</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>7</v>
+        <v>144</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F64" s="2" t="s">
-        <v>58</v>
+      <c r="F64" s="43" t="s">
+        <v>258</v>
       </c>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
@@ -47306,23 +47407,23 @@
       <c r="AA64" s="2"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="2" t="s">
-        <v>225</v>
+      <c r="A65" s="72" t="s">
+        <v>259</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>7</v>
+        <v>144</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F65" s="2" t="s">
-        <v>60</v>
+      <c r="F65" s="43" t="s">
+        <v>260</v>
       </c>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
@@ -47354,7 +47455,7 @@
         <v>7</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>9</v>
@@ -47363,7 +47464,7 @@
         <v>44</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
@@ -47404,7 +47505,7 @@
         <v>44</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
@@ -47445,7 +47546,7 @@
         <v>44</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
@@ -47470,10 +47571,10 @@
       <c r="AA68" s="2"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B69" s="41" t="s">
+      <c r="B69" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C69" s="2" t="s">
@@ -47483,10 +47584,10 @@
         <v>9</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>230</v>
+        <v>62</v>
       </c>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
@@ -47512,9 +47613,9 @@
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="B70" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C70" s="2" t="s">
@@ -47524,10 +47625,10 @@
         <v>9</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>232</v>
+        <v>64</v>
       </c>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
@@ -47553,9 +47654,9 @@
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="B71" s="41" t="s">
+        <v>231</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C71" s="2" t="s">
@@ -47565,10 +47666,10 @@
         <v>9</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>234</v>
+        <v>66</v>
       </c>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
@@ -47593,10 +47694,10 @@
       <c r="AA71" s="2"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="B72" s="41" t="s">
+      <c r="A72" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B72" s="43" t="s">
         <v>7</v>
       </c>
       <c r="C72" s="2" t="s">
@@ -47606,10 +47707,10 @@
         <v>9</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>258</v>
+        <v>9</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
@@ -47635,9 +47736,9 @@
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B73" s="41" t="s">
+        <v>234</v>
+      </c>
+      <c r="B73" s="43" t="s">
         <v>7</v>
       </c>
       <c r="C73" s="2" t="s">
@@ -47647,10 +47748,10 @@
         <v>9</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
@@ -47676,9 +47777,9 @@
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B74" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="B74" s="43" t="s">
         <v>7</v>
       </c>
       <c r="C74" s="2" t="s">
@@ -47687,11 +47788,11 @@
       <c r="D74" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E74" s="63">
-        <v>100.0</v>
+      <c r="E74" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
@@ -47716,70 +47817,133 @@
       <c r="AA74" s="2"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="70" t="s">
-        <v>272</v>
-      </c>
-      <c r="B75" s="41" t="s">
+      <c r="A75" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B75" s="43" t="s">
         <v>7</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D75" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E75" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="F75" s="12" t="s">
-        <v>274</v>
-      </c>
+      <c r="D75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" s="2"/>
+      <c r="Q75" s="2"/>
+      <c r="R75" s="2"/>
+      <c r="S75" s="2"/>
+      <c r="T75" s="2"/>
+      <c r="U75" s="2"/>
+      <c r="V75" s="2"/>
+      <c r="W75" s="2"/>
+      <c r="X75" s="2"/>
+      <c r="Y75" s="2"/>
+      <c r="Z75" s="2"/>
+      <c r="AA75" s="2"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="71" t="s">
-        <v>275</v>
-      </c>
-      <c r="B76" s="41" t="s">
+      <c r="A76" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B76" s="43" t="s">
         <v>7</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D76" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E76" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="F76" s="12" t="s">
-        <v>277</v>
-      </c>
+      <c r="D76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" s="2"/>
+      <c r="Q76" s="2"/>
+      <c r="R76" s="2"/>
+      <c r="S76" s="2"/>
+      <c r="T76" s="2"/>
+      <c r="U76" s="2"/>
+      <c r="V76" s="2"/>
+      <c r="W76" s="2"/>
+      <c r="X76" s="2"/>
+      <c r="Y76" s="2"/>
+      <c r="Z76" s="2"/>
+      <c r="AA76" s="2"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="B77" s="41" t="s">
+      <c r="A77" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B77" s="43" t="s">
         <v>7</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D77" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E77" s="12" t="s">
+      <c r="D77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77" s="65">
+        <v>100.0</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+      <c r="P77" s="2"/>
+      <c r="Q77" s="2"/>
+      <c r="R77" s="2"/>
+      <c r="S77" s="2"/>
+      <c r="T77" s="2"/>
+      <c r="U77" s="2"/>
+      <c r="V77" s="2"/>
+      <c r="W77" s="2"/>
+      <c r="X77" s="2"/>
+      <c r="Y77" s="2"/>
+      <c r="Z77" s="2"/>
+      <c r="AA77" s="2"/>
+    </row>
+    <row r="78" ht="15.75" customHeight="1">
+      <c r="A78" s="73" t="s">
         <v>279</v>
       </c>
-      <c r="F77" s="12" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="B78" s="41" t="s">
+      <c r="B78" s="43" t="s">
         <v>7</v>
       </c>
       <c r="C78" s="2" t="s">
@@ -47789,15 +47953,72 @@
         <v>70</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F78" s="12" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1">
+      <c r="A79" s="74" t="s">
+        <v>282</v>
+      </c>
+      <c r="B79" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E79" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="F79" s="12" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="80" ht="15.75" customHeight="1">
+      <c r="A80" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="B80" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E80" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="F80" s="12" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="81" ht="15.75" customHeight="1">
+      <c r="A81" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="B81" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E81" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="F81" s="12" t="s">
+        <v>288</v>
+      </c>
+    </row>
     <row r="82" ht="15.75" customHeight="1"/>
     <row r="83" ht="15.75" customHeight="1"/>
     <row r="84" ht="15.75" customHeight="1"/>
@@ -48573,20 +48794,25 @@
     <row r="854" ht="15.75" customHeight="1"/>
     <row r="855" ht="15.75" customHeight="1"/>
     <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="E6"/>
     <hyperlink r:id="rId2" ref="E11"/>
     <hyperlink r:id="rId3" ref="E13"/>
     <hyperlink r:id="rId4" ref="E14"/>
-    <hyperlink r:id="rId5" ref="E28"/>
-    <hyperlink r:id="rId6" ref="A34"/>
-    <hyperlink r:id="rId7" ref="A38"/>
-    <hyperlink r:id="rId8" ref="A40"/>
-    <hyperlink r:id="rId9" ref="A51"/>
-    <hyperlink r:id="rId10" ref="A69"/>
-    <hyperlink r:id="rId11" ref="A75"/>
+    <hyperlink r:id="rId5" ref="E18"/>
+    <hyperlink r:id="rId6" ref="E29"/>
+    <hyperlink r:id="rId7" ref="A35"/>
+    <hyperlink r:id="rId8" ref="A39"/>
+    <hyperlink r:id="rId9" ref="A41"/>
+    <hyperlink r:id="rId10" ref="A42"/>
+    <hyperlink r:id="rId11" ref="A54"/>
+    <hyperlink r:id="rId12" ref="A72"/>
+    <hyperlink r:id="rId13" ref="A78"/>
   </hyperlinks>
-  <drawing r:id="rId12"/>
+  <drawing r:id="rId14"/>
 </worksheet>
 </file>
--- a/api/components/attributes/metro-card-recharge/metro-card-recharge.xlsx
+++ b/api/components/attributes/metro-card-recharge/metro-card-recharge.xlsx
@@ -36802,8 +36802,8 @@
       <c r="A30" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="B30" s="43" t="s">
-        <v>7</v>
+      <c r="B30" s="42" t="s">
+        <v>80</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>8</v>
@@ -36822,8 +36822,8 @@
       <c r="A31" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="B31" s="43" t="s">
-        <v>7</v>
+      <c r="B31" s="42" t="s">
+        <v>80</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>8</v>
@@ -36842,8 +36842,8 @@
       <c r="A32" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="B32" s="43" t="s">
-        <v>7</v>
+      <c r="B32" s="42" t="s">
+        <v>80</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>8</v>
@@ -40035,8 +40035,8 @@
       <c r="A49" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B49" s="43" t="s">
-        <v>7</v>
+      <c r="B49" s="42" t="s">
+        <v>80</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>8</v>
@@ -40076,8 +40076,8 @@
       <c r="A50" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B50" s="43" t="s">
-        <v>7</v>
+      <c r="B50" s="42" t="s">
+        <v>80</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>8</v>
@@ -40117,8 +40117,8 @@
       <c r="A51" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B51" s="43" t="s">
-        <v>7</v>
+      <c r="B51" s="42" t="s">
+        <v>80</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>8</v>
@@ -40158,8 +40158,8 @@
       <c r="A52" s="66" t="s">
         <v>243</v>
       </c>
-      <c r="B52" s="43" t="s">
-        <v>7</v>
+      <c r="B52" s="42" t="s">
+        <v>80</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>8</v>
@@ -42786,8 +42786,8 @@
       <c r="A30" s="66" t="s">
         <v>243</v>
       </c>
-      <c r="B30" s="43" t="s">
-        <v>7</v>
+      <c r="B30" s="42" t="s">
+        <v>80</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>8</v>
@@ -42827,8 +42827,8 @@
       <c r="A31" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B31" s="43" t="s">
-        <v>7</v>
+      <c r="B31" s="42" t="s">
+        <v>80</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>8</v>
@@ -42868,8 +42868,8 @@
       <c r="A32" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B32" s="43" t="s">
-        <v>7</v>
+      <c r="B32" s="42" t="s">
+        <v>80</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>8</v>
@@ -42909,8 +42909,8 @@
       <c r="A33" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B33" s="43" t="s">
-        <v>7</v>
+      <c r="B33" s="42" t="s">
+        <v>80</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>8</v>
@@ -42950,8 +42950,8 @@
       <c r="A34" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="B34" s="43" t="s">
-        <v>7</v>
+      <c r="B34" s="42" t="s">
+        <v>80</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>8</v>
@@ -42991,8 +42991,8 @@
       <c r="A35" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="B35" s="43" t="s">
-        <v>7</v>
+      <c r="B35" s="42" t="s">
+        <v>80</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>8</v>
@@ -43032,8 +43032,8 @@
       <c r="A36" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B36" s="43" t="s">
-        <v>7</v>
+      <c r="B36" s="42" t="s">
+        <v>80</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>8</v>
@@ -46836,8 +46836,8 @@
       <c r="A51" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B51" s="43" t="s">
-        <v>7</v>
+      <c r="B51" s="42" t="s">
+        <v>80</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>8</v>
@@ -46877,8 +46877,8 @@
       <c r="A52" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B52" s="43" t="s">
-        <v>7</v>
+      <c r="B52" s="42" t="s">
+        <v>80</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>8</v>
@@ -46918,8 +46918,8 @@
       <c r="A53" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B53" s="43" t="s">
-        <v>7</v>
+      <c r="B53" s="42" t="s">
+        <v>80</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>8</v>
@@ -46959,8 +46959,8 @@
       <c r="A54" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="B54" s="43" t="s">
-        <v>7</v>
+      <c r="B54" s="42" t="s">
+        <v>80</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>8</v>
@@ -47820,8 +47820,8 @@
       <c r="A75" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B75" s="43" t="s">
-        <v>7</v>
+      <c r="B75" s="42" t="s">
+        <v>80</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>8</v>
@@ -47861,8 +47861,8 @@
       <c r="A76" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B76" s="43" t="s">
-        <v>7</v>
+      <c r="B76" s="42" t="s">
+        <v>80</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>8</v>
@@ -47902,8 +47902,8 @@
       <c r="A77" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B77" s="43" t="s">
-        <v>7</v>
+      <c r="B77" s="42" t="s">
+        <v>80</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>8</v>
